--- a/amazonreview.xlsx
+++ b/amazonreview.xlsx
@@ -497,22 +497,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0be44b73-ebad-4a1f-bd0b-799017ab462b</t>
+          <t>7c1250f4-ddd9-48e6-bda3-8fc1bcce00bd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maanu Gaming</t>
+          <t>Aryan Gurjar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9NfjG77jhk2tVKAWo_Jy7bcebx9htEAjyoYLTGGnT0BnKGACM</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW9hkcVIIUgix_Wg21dZn9ytpOl0S01LMNeacO2rCQjDjMksbM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>good service 💯</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
-        <v>45690.46402777778</v>
+        <v>45690.51405092593</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -532,22 +532,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>45c4ffa8-897c-4812-96c1-1ecb28ee5eed</t>
+          <t>fcab187e-e4b2-40cf-bc14-6da9b791c019</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anand Sahu</t>
+          <t>Dhruvik Hirpara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKVCjnBdK9vNiOARomxiqt_AdTZ1OXH7rOcsO4Imfq5QlCTIg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVNLfw2oqpmubWPg0ZSKqVd-Peanxq7QGU8XrN0l67AqrA-WecX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Good 💯</t>
+          <t>good service</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -558,160 +558,160 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16.3.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45690.46305555556</v>
+        <v>45690.5127662037</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16.3.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>089134e8-9255-484b-9ad2-4eaa29122fce</t>
+          <t>3f7eaec5-d6ea-4ae4-86a1-acf9e3df40c1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anjali kachhap</t>
+          <t>jay gupta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWNlOJQsphW34jh1fejcb81819QWDeCX2Uso_fdBgW3fX2qRZCG</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWrVG7ie0cgSNoTXSnzQRqv1Y6i8pKQFDiGRAchIcgKrwKBlPkuqg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>they always send wrong product and his customer service is also very poor they not helps us</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45690.45868055556</v>
+        <v>45690.5121875</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>da9557d8-3d1c-441b-8139-b63fb2008bc7</t>
+          <t>00c47f48-530e-450f-90fe-2bf41aef725d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Santosh Santosh.rakwar</t>
+          <t>Murugan Aryan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJhmjE6s_5-Zr1Hyd19ywHEMGINh9GM-MdyTgSMJAWc6r5Ifg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLu4_wu0k7ObPpZgs4oT01Ru9U27E7rV9n8wxq-1HogiN2mag=mo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>🤯</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>28.23.2.300</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v>45690.45524305556</v>
+        <v>45690.51210648148</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>28.23.2.300</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01d3cc2c-c57b-4abe-b08a-4aa2e7c1bb43</t>
+          <t>5994fc0b-96fa-429f-8385-57036cafd65b</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SATHAR GANESH</t>
+          <t>bipul barman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLCONGKXWSah7PR8DAzH9Oy_ydbCueMbJ8dJAx7Ip6OoPhUww=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUixjlA_GO1SYNJghi8fY6AIBYyzKXn4YRjSnMwztsrPUggU5sH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>Amazon pay not working</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>26.21.0.300</t>
+        </is>
+      </c>
       <c r="H6" s="2" t="n">
-        <v>45690.44618055555</v>
+        <v>45690.51008101852</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>26.21.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9ad0634b-d21b-444c-9a13-2fccf4a19168</t>
+          <t>ea6413df-e158-4fc4-b10f-cca53d660be4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Uday Sarukolla</t>
+          <t>Harsh Raj</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXJZk4TQF6boCtcYUnqS7bq8xPubx0PL8jUxJUoN4qubrn3MCxC</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJXrcIvkPqmID8VBxHepwJMSI4217xsokkS9cmP-rCB9yLgXA=mo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Good app</t>
+          <t>This app is incredible such as my wife</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -722,50 +722,50 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.15.0.300</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45690.44609953704</v>
+        <v>45690.50976851852</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.15.0.300</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17fbce62-2f70-49b3-88b4-da4a169156e5</t>
+          <t>0cddb5b8-5487-418d-94f4-c353fba0520f</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sumit Yadav</t>
+          <t>Lalam Yaswanth</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW7i2B9NDNy2j5jneadF3rQEtXsr8XUlb77xri3cddLMv7VXsIV</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJEP512WS7gL4flgKhTHFBytcil-F7hpeor87dfFlUJPA61Dw=mo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bhuth achaa hai bro</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>45690.44520833333</v>
+        <v>45690.49929398148</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -774,65 +774,65 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2ac2e38a-4625-457b-be02-fd25e1caec54</t>
+          <t>cf6cdf61-edf2-4706-8299-200860ea207e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amit Hasan</t>
+          <t>willy K</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUYx2rXjJe37K2Ajbg-b82Js7dtoUzT3FaS9XVoBODj5i6Wf5sk</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX6sbcD3q_5lyhuRcfuhqukP880LeQyU9JHjXwSaCUEoLT9JsY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>good 👍</t>
+          <t>very difficult to contact customer support</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45690.4396412037</v>
+        <v>45690.49298611111</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6e31f87b-d51a-4d6f-8aac-e3e8c2634bb4</t>
+          <t>9123eec0-8a09-42cd-8de4-e58196242160</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sakshi Sharms</t>
+          <t>Rohit Lanke</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOaClTi9HM4nEF17QYhNqQAj2GXSEiK0tbcWLTKjasCQGFsA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWMx3FK0IGEFbkNRurCSNHmF4FfbZrdWTAaJoon0KQCON2gXGU</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Best app ever</t>
+          <t>Good Application</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -843,39 +843,39 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22.18.0.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45690.43785879629</v>
+        <v>45690.4927662037</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22.18.0.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30a41e9a-9d93-4478-b17c-f517f77c2137</t>
+          <t>c2c0aa76-7e4c-4855-96b5-f215a746d471</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raj Singh</t>
+          <t>Ashok YouTube channel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvpSYEqz4OEo8nR54lpn0y4T-TAohGHq1wjgsy6_Jjazrm3V55</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLIy9CC2R4zsPp7PirtAyzO4O4g3W5KwRH7Igzw_IwqY1XEIA=mo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>very nice</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45690.4291087963</v>
+        <v>45690.49162037037</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -903,33 +903,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dcce19ea-9ee5-47b7-9d18-fc74e7218986</t>
+          <t>39e5fce8-ca67-4748-8e73-c7948ced481f</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Neha Kumari</t>
+          <t>Akash Gangwar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKdjFhauKWU1OSdv84Y_YOtUmCaqMSNDrBwcRl2fB20gGc9UsWt=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXVazjX_or6XciOU_i65KmgZKVs_VuNkcjLmbooUz0Bk-VyFSHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Delivery Time is very very slow and the rate of product is high . Please improve delivery time and reduce the price of products</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v>45690.42899305555</v>
+        <v>45690.49</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -938,29 +938,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>337f2848-ccc5-4b7f-94a8-906a61fbad46</t>
+          <t>28123046-d159-4efa-a8a8-793829c57b24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sayandeep Das</t>
+          <t>Narashimaharaju Dk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWYCeOuFxKdJUM92JXlhoJmO3RVFNaJqxFj1EQxZJJmrBRCY-z9</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJA5dS6Ir6dYT5ENoRwObfncxMXqIPe0sovQiqmeKf4mXIkfA=mo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Amazon big best good shopping app</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45690.42703703704</v>
+        <v>45690.48966435185</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -981,65 +981,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ff4e0d49-4498-4b8a-bd4c-858a9ee12629</t>
+          <t>65e4c0cd-862c-43be-bece-5f48b44c2953</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Badhavath Nagasrinu</t>
+          <t>Ankit vlogs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVtBfSZV8ToL5WtlwKthm6cLLdNd4PVKUDnpPQK9PDuXY7Gt43A3g</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVSvEZ1btaeOQk5hISuXIWvkWY2PBkcTLjhY0bwPcLVodtOn1U</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>The app is very good</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" s="2" t="n">
-        <v>45690.42003472222</v>
+        <v>45690.4802199074</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>44fde6c2-7147-4a50-b485-b1a67b0dadf4</t>
+          <t>052198c2-c589-4768-a50b-604fa07d61da</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vi Jay</t>
+          <t>SINHESHWAR PRASAD YADAV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXSSmPTUOcZYXhiTMrDXyEdo91SaXNM9UO1UqZxFAx-I13dffcp</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXQu9LSDkvDBnhkY9brm9rMO63HO-U5HxsmzVLZG3_oAFVQL2x45w</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>original product</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1054,7 +1046,7 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45690.4178587963</v>
+        <v>45690.47877314815</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1067,65 +1059,65 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8d05d79d-7422-4e20-b945-de22a9bfbf58</t>
+          <t>e7fab8c9-9fab-40e3-bd03-5170853d5ab7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aman Gond</t>
+          <t>Rohit Singh</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKI3NBWiV750fi4mUt5q4A3i-iK3h7FuuOa5OZY6_a8ZeKNWg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJrbgURG3_riLH1gEPVPd1Zu0NcdUmIJsGpOLW2nMAH-6rq0w=mo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>It's a bad bad bad.... App😱😱😱😱😱</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45690.41729166666</v>
+        <v>45690.47849537037</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2734ebc3-bb55-41d6-8570-b92e4fabb3b3</t>
+          <t>0546948d-610d-4217-bcdd-4772bb9bf434</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Meer Kabir</t>
+          <t>Pratik Thombare</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBENprRtVjFpAFMaM-dLtSaNpz67TEJTswqmm0bCfs6pXg4Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLvwYKY4u2MIa5m6f8snHs87vlbMUtLFwwiiZ7SBFmnBhhLoQ=mo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nice app very good</t>
+          <t>Amazing app flexible to use feature are good</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1136,43 +1128,43 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>26.16.0.300</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45690.41313657408</v>
+        <v>45690.47848379629</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>26.16.0.300</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05ac00eb-b614-42f8-b9e8-d10b72338507</t>
+          <t>0d66a039-d9e7-4de8-b639-1b3ef43183f5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANIL MEENA</t>
+          <t>Bharati Kudtarkar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWL7Y5dK90KIXs3JNUhseNzTdf_59RTF0U2kqVQ4fKTb6YK5ICk</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ8SUhdFbhXkMYerSgKH3gTULSITDogL6PyLeKTnl0u4sXF_Q=mo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bhut kharab chal rha h mere to scanner bi nhi ho rha h</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1183,7 +1175,7 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45690.41247685185</v>
+        <v>45690.47803240741</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1196,57 +1188,65 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>f48c1859-f67e-40fb-b72a-dc9ed3c54e7c</t>
+          <t>a4b7c1e9-1ef2-4986-95ca-5fa22b4e3fcc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Saker Maurya</t>
+          <t>Hrushikesh Shete</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKq4_Yl6U-VsrO776MxuXNmnSC1A1Qtpz_U3jreYjfHnft_5g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWnq3oDRT9VRQ42pmg1gckM8dnuLmAVqjUF2yDFa-msjPNree-0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Amazon par saste products milte hai</t>
+          <t>Worst customer service ever 😡 seen in my life only recorded call and answers you get when you call too to customer care and delivery boy refuse to deliver products and say that your address is not on my route to deliver your product and canceled by it self and say that customer refuse to take order and i can't complain about this because all the customer are number are boat and recorded call 👎👎👎</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H19" s="2" t="n">
-        <v>45690.40398148148</v>
+        <v>45690.47690972222</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9600a8e8-6098-4527-a245-4be3f72423d3</t>
+          <t>d472ffc0-efa8-4d49-9178-95a51770afcf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Deepak Bi</t>
+          <t>PAREEK GAMING SUMIT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWUtvUj04MghJC7QB7hiGPRvnuaz5pQ1sO8lDJKbrqmJuyJEKmc</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIQs1aebOZeTMFikCRrFWhZTBdgL0BPmCAnmu7te96rFPS_WYg=mo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Worst app ever</t>
+          <t>No proper service No proper employee Worst app for ever</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1255,41 +1255,33 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>26.18.2.300</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" s="2" t="n">
-        <v>45690.40168981482</v>
+        <v>45690.47659722222</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>26.18.2.300</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8e42f3f1-52f8-4687-b03c-b43c47ddb752</t>
+          <t>799ad320-211d-4fa7-bb0f-25b35872f550</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ranjan Srivastava</t>
+          <t>Distracker Vikas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXZCUHpM1bOlpBSVQki25g87o_VHkrutfTg7wYAS9xU6ZPXAOunPA</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVYzMsHsqURT2I-qhAl8zRP9DegNzk4qVXvGnsBBErnVLFUZx0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Excellent 👍</t>
+          <t>Shopping is very easy and product is very good</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1304,7 +1296,7 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45690.40071759259</v>
+        <v>45690.4741087963</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1317,22 +1309,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2be00fe8-b25c-42bf-bdac-2004a4a74049</t>
+          <t>2e355c0e-583a-41a8-915d-897bf11c755b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Garima Gaba</t>
+          <t>Rahul Gupta</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKIxxhZ1DX9a_KJ-zdNm1Jg42uMqRsMv5_nS6dBJ3klsbarow=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKJRtSq8ZD3KEw5YxUj0NdfCjndpLkegoSS-SNe47kbEskHeA=mo</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>nice 🙂</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1347,7 +1339,7 @@
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45690.39809027778</v>
+        <v>45690.47387731481</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1360,108 +1352,108 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1e0dc9e5-2598-415d-aad6-1ce10f9b5aac</t>
+          <t>a7729cc6-0787-4670-be29-3cad74299fec</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>we are Telugu gaming fan we are Telugu gaming fan</t>
+          <t>Gaurav</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWLaCpCSETkEPeX3FIPZLSOM5ifvUniwKyIPrHVnpfcL7pvzRY</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK6VCqOjd323MRgYYKjvak8KVHqzetKAYFbUmLWwEmnvkkh3LA=mo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WOW SO NICE</t>
+          <t>Unfair Refund Policy – Traps Customers' Money Ordered an item worth ₹409, but it was marked as delivered despite not receiving it. After raising the issue, Amazon refunded only ₹259 to my bank and credited ₹150 to Amazon Pay balance after 5 days. This feels like a tactic to trap customers’ money and force extra spending. I can't use ₹150 without adding more funds, making it unfair and inconvenient. Instead of prioritizing customers, Amazon seems focused on profit. Disappointed!</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45690.39326388889</v>
+        <v>45690.4709375</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>49edf07d-d508-4b98-b21c-044dd479c67c</t>
+          <t>025dbd44-56e5-4793-85ef-1f56e4c7bd29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>saurovi Gogoi</t>
+          <t>Chandrakanta Rana</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVQdz6umodk_yHZhwyxh98vfI_ES4HokKnXGqXLpyQcu42Q8j1T</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUi5uKzzwMrrXInjsugPm4fF8P9JXpmAo5j4o_H6xIaMcZ7XOE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Poor working app i am added money in wallet known this time not provide my money i request all dont use this app</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45690.39239583333</v>
+        <v>45690.46900462963</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9ce09403-ac4a-49c3-9c3b-8d8392e85dd7</t>
+          <t>0be44b73-ebad-4a1f-bd0b-799017ab462b</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bijoy Das</t>
+          <t>Maanu Gaming</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUDfFnWHNI4bhekIA75iEC_qvmPMLexYyELZ6iMu2GiKRU8I_ba</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9NfjG77jhk2tVKAWo_Jy7bcebx9htEAjyoYLTGGnT0BnKGACM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>good service 💯</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1470,41 +1462,33 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" s="2" t="n">
-        <v>45690.38534722223</v>
+        <v>45690.46402777778</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0ff2c60f-ae32-4ed1-8167-d9e7793ee3e2</t>
+          <t>45c4ffa8-897c-4812-96c1-1ecb28ee5eed</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Neeta Udavant</t>
+          <t>Anand Sahu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLcVL06OI7eKtjWUaq2NIrw4PWDJJDOHqhbL50B6l4OEAUf7A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKVCjnBdK9vNiOARomxiqt_AdTZ1OXH7rOcsO4Imfq5QlCTIg=mo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Amazon is the best</t>
+          <t>Good 💯</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1515,117 +1499,125 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>28.21.4.300</t>
+          <t>16.3.0.300</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45690.38293981482</v>
+        <v>45690.46305555556</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28.21.4.300</t>
+          <t>16.3.0.300</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23676e23-52ec-470e-a279-033726ecaaf3</t>
+          <t>089134e8-9255-484b-9ad2-4eaa29122fce</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Layee Kharsi</t>
+          <t>Anjali kachhap</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIKGiNcIx11cW4Zt_ZlNkFxcp9DM5_N2sUywS0mvKYWuX0TAA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWNlOJQsphW34jh1fejcb81819QWDeCX2Uso_fdBgW3fX2qRZCG</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="n">
-        <v>45690.37326388889</v>
+        <v>45690.45868055556</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>e7826b2d-9a0c-4db1-a502-5570879d24d1</t>
+          <t>da9557d8-3d1c-441b-8139-b63fb2008bc7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sonu Nayak</t>
+          <t>Santosh Santosh.rakwar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW2nJhLGcXaINHlzl5NX95XtVSMjxuWQChSX8arZK7bYVM77lzY</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJhmjE6s_5-Zr1Hyd19ywHEMGINh9GM-MdyTgSMJAWc6r5Ifg=mo</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>👍👍👍👍👍 very good</t>
+          <t>🤯</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45690.37005787037</v>
+        <v>45690.45524305556</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28bf0241-ea28-4727-bdfa-cf65a2778eea</t>
+          <t>01d3cc2c-c57b-4abe-b08a-4aa2e7c1bb43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ghanchiriyan</t>
+          <t>SATHAR GANESH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWjILh5tH85e0oGbGSVtg-ZuXmgXCucZgBWforKB0cvfk5fQtg</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLCONGKXWSah7PR8DAzH9Oy_ydbCueMbJ8dJAx7Ip6OoPhUww=mo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1634,41 +1626,33 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>28.18.4.300</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" s="2" t="n">
-        <v>45690.36670138889</v>
+        <v>45690.44618055555</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>28.18.4.300</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5d2f4223-80a6-473c-aeb6-414e689a52fe</t>
+          <t>9ad0634b-d21b-444c-9a13-2fccf4a19168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Put up Drew</t>
+          <t>Uday Sarukolla</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIs4YkxPtGYm_-vd4U1PHSF2X1t73SeVBebedQ31qj7qyjRuQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXJZk4TQF6boCtcYUnqS7bq8xPubx0PL8jUxJUoN4qubrn3MCxC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>👌🥰</t>
+          <t>Good app</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1679,82 +1663,74 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45690.36466435185</v>
+        <v>45690.44609953704</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>d338dff3-e1a8-4f5e-ac4e-7bd2862bece9</t>
+          <t>17fbce62-2f70-49b3-88b4-da4a169156e5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H Vardhan</t>
+          <t>Sumit Yadav</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUkuwae_JbwuC3YGzGXzN9o4cl1Tggh5GPWtKQjp8p8pviKnzoV</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW7i2B9NDNy2j5jneadF3rQEtXsr8XUlb77xri3cddLMv7VXsIV</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Very bad experience, new scam is running by Amazon sellers , they deliver you wrong product and when you return that product the product will be shown in app that its got lost during transit and after that amazon will say that it will be cleared by our inspection team .. and finally you will get reply that you(customer) are frod .you have returned damaged and different product, so they wont return your money or product .. means you got cheated by amazon and you will become cheater. Great job</t>
+          <t>Bhuth achaa hai bro</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" s="2" t="n">
-        <v>45690.3581712963</v>
+        <v>45690.44520833333</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7bd9c520-4534-47cb-9071-3fef242e4a0c</t>
+          <t>2ac2e38a-4625-457b-be02-fd25e1caec54</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Amit Hasan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXzuuy1SIu-4fK4xaKMbIWdLweZx0uFxB3jCfd7zQIJ-KzskQvtWQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUYx2rXjJe37K2Ajbg-b82Js7dtoUzT3FaS9XVoBODj5i6Wf5sk</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UPI scanner is very slow compared to PhonePe</t>
+          <t>good 👍</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1765,82 +1741,82 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45690.35673611111</v>
+        <v>45690.4396412037</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>d4d2b5c0-5aac-4ecf-9221-c0b0c4c71740</t>
+          <t>6e31f87b-d51a-4d6f-8aac-e3e8c2634bb4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Muhammad Ahsan</t>
+          <t>Sakshi Sharms</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJXn0l_ghQM_dNy0NdiAbyqXf6pGMUXGlUxIxM2rwCCtmZxjA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOaClTi9HM4nEF17QYhNqQAj2GXSEiK0tbcWLTKjasCQGFsA=mo</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Best app ever</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.18.0.300</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45690.35246527778</v>
+        <v>45690.43785879629</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.18.0.300</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>a7e5066d-3800-4e18-9c2f-dadf5e4b00ac</t>
+          <t>30a41e9a-9d93-4478-b17c-f517f77c2137</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Venky</t>
+          <t>Raj Singh</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKoTGFUgxAR4oTczCfZSBOXbEVhy8XgDpmTB09a_byJDbOh2A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvpSYEqz4OEo8nR54lpn0y4T-TAohGHq1wjgsy6_Jjazrm3V55</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>very nice</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1851,82 +1827,74 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45690.35057870371</v>
+        <v>45690.4291087963</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6726db63-a39c-4094-a7ba-793dcb87ff5c</t>
+          <t>dcce19ea-9ee5-47b7-9d18-fc74e7218986</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hema Hem</t>
+          <t>Neha Kumari</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIZYIWfoNEB9hmVyf6UoCHokaDg25qgcEeX8t9uDS-5hsMpfw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKdjFhauKWU1OSdv84Y_YOtUmCaqMSNDrBwcRl2fB20gGc9UsWt=mo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Delivery Time is very very slow and the rate of product is high . Please improve delivery time and reduce the price of products</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>16.3.0.300</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" s="2" t="n">
-        <v>45690.34944444444</v>
+        <v>45690.42899305555</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>16.3.0.300</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18f19367-fa95-405e-90c7-2f2577b7a702</t>
+          <t>337f2848-ccc5-4b7f-94a8-906a61fbad46</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Raffan Shaikh</t>
+          <t>Sayandeep Das</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWmCPMbiiom2_8fZ2kXh4Dudckc_IRK8ZDJH1KzoR5brk2ZdTQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWYCeOuFxKdJUM92JXlhoJmO3RVFNaJqxFj1EQxZJJmrBRCY-z9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Good 👍</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1935,33 +1903,41 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="n">
-        <v>45690.34487268519</v>
+        <v>45690.42703703704</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8fbf4922-98af-4f10-8ac0-695991197c2f</t>
+          <t>ff4e0d49-4498-4b8a-bd4c-858a9ee12629</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KARTHI M</t>
+          <t>Badhavath Nagasrinu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIfMa85iI7c9v2PJXcHipTiMjHVFPQ5UwRtx54a63ybxqwtrRE=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVtBfSZV8ToL5WtlwKthm6cLLdNd4PVKUDnpPQK9PDuXY7Gt43A3g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>good service fast delivery 🚚 thanks for Amazon</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1976,7 +1952,7 @@
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45690.34403935185</v>
+        <v>45690.42003472222</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1989,22 +1965,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0610790e-6887-4e95-9c0b-93a8b9c01b00</t>
+          <t>44fde6c2-7147-4a50-b485-b1a67b0dadf4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Debanc Sing</t>
+          <t>Vi Jay</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXEw0uc4B6szdvFybKldFk0jjeAo755cAFUMXnQMpIhbyJnxGE</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXSSmPTUOcZYXhiTMrDXyEdo91SaXNM9UO1UqZxFAx-I13dffcp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>good app for shopping</t>
+          <t>original product</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2015,74 +1991,82 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45690.34365740741</v>
+        <v>45690.4178587963</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8bae77a1-838f-473d-bbe7-4076459a9200</t>
+          <t>8d05d79d-7422-4e20-b945-de22a9bfbf58</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kashi Ram Godara</t>
+          <t>Aman Gond</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLy2OFNAjQQpXzPQ1eB5KCnEzmL8fBv64meQPs7DSIJqTPJGQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKI3NBWiV750fi4mUt5q4A3i-iK3h7FuuOa5OZY6_a8ZeKNWg=mo</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Good app</t>
+          <t>It's a bad bad bad.... App😱😱😱😱😱</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H39" s="2" t="n">
-        <v>45690.34037037037</v>
+        <v>45690.41729166666</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>eb10d93e-a47d-4a43-94b9-e5acc96fd81e</t>
+          <t>2734ebc3-bb55-41d6-8570-b92e4fabb3b3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Koushik Roy</t>
+          <t>Meer Kabir</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVnOzX2_YhaG411PrEjPxUXUTPZrVVNbRE7LeMKBLHIS1GnlEsi</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBENprRtVjFpAFMaM-dLtSaNpz67TEJTswqmm0bCfs6pXg4Q=mo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Nice app very good</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2093,43 +2077,43 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45690.33804398148</v>
+        <v>45690.41313657408</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29a720fa-66f7-4502-b9dd-0d293d37f022</t>
+          <t>05ac00eb-b614-42f8-b9e8-d10b72338507</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kamlash Davi</t>
+          <t>ANIL MEENA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9ijrh1_ch62OvYdEcpqER1eCG9Hk0tT8I1dWVBFMcXPzdvQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWL7Y5dK90KIXs3JNUhseNzTdf_59RTF0U2kqVQ4fKTb6YK5ICk</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Bhut kharab chal rha h mere to scanner bi nhi ho rha h</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2140,7 +2124,7 @@
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45690.33149305556</v>
+        <v>45690.41247685185</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2153,22 +2137,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>e602b29d-f6cc-49b2-9375-ba42ab5f5a51</t>
+          <t>f48c1859-f67e-40fb-b72a-dc9ed3c54e7c</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pvn Chivas</t>
+          <t>Saker Maurya</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW4PRlCldOtZkrUgU0tfUDysYIIICSmTMEHOF4P1mXc4xRM3fge</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKq4_Yl6U-VsrO776MxuXNmnSC1A1Qtpz_U3jreYjfHnft_5g=mo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>kya bolna AMAZON ke bare mein...tarom aur sitaro m ke bare kya bolna...IT SHOULD BE FEELING GREAT</t>
+          <t>Amazon par saste products milte hai</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2177,232 +2161,248 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="n">
-        <v>45690.3308912037</v>
+        <v>45690.40398148148</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08e63e29-5fd1-4ee8-9afb-2ed8a2f15d70</t>
+          <t>9600a8e8-6098-4527-a245-4be3f72423d3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bikram Das</t>
+          <t>Deepak Bi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-rzcy0HP_5vD08vw9XH3efs55USEP0WVkvvNPjVDh97Am5g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWUtvUj04MghJC7QB7hiGPRvnuaz5pQ1sO8lDJKbrqmJuyJEKmc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Worst app ever</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>26.18.2.300</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45690.32357638889</v>
+        <v>45690.40168981482</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>26.18.2.300</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9e0ae7ae-dcd7-4231-92b0-39b0b7b99f52</t>
+          <t>8e42f3f1-52f8-4687-b03c-b43c47ddb752</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Shyam Sundar</t>
+          <t>Ranjan Srivastava</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL-lc1fWH0xZXsgrnmC-Lc91mkRMHr5UkEXY7s-vWaIbGSoiQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXZCUHpM1bOlpBSVQki25g87o_VHkrutfTg7wYAS9xU6ZPXAOunPA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Maja nahin aa raha hai</t>
+          <t>Excellent 👍</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="n">
-        <v>45690.31907407408</v>
+        <v>45690.40071759259</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9d6ca3ea-8c50-4c47-b450-db90cdccc12e</t>
+          <t>2be00fe8-b25c-42bf-bdac-2004a4a74049</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Harshit kumar Kardam</t>
+          <t>Garima Gaba</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWUd_t26ml3kfcMukfw3SYnCVgBASVZx_lVGhBWeYdRPHohh37I</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKIxxhZ1DX9a_KJ-zdNm1Jg42uMqRsMv5_nS6dBJ3klsbarow=mo</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Very bad app, my order has been canceled because I took back some items that were on time, but it seems that I have placed the order and am canceling/refunding the order because item defective or broken , I am not stupid that I would do that</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>28.9.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45690.3178587963</v>
+        <v>45690.39809027778</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28.9.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>35ef88b1-de55-4285-8310-a0c7fbd743d7</t>
+          <t>1e0dc9e5-2598-415d-aad6-1ce10f9b5aac</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rathva Arjun</t>
+          <t>we are Telugu gaming fan we are Telugu gaming fan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI7V41_nL0zN32-j1eeK5vB0tg-KZ0QDY8PeEDe6tsGtWQdEA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWLaCpCSETkEPeX3FIPZLSOM5ifvUniwKyIPrHVnpfcL7pvzRY</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wow nice pic</t>
+          <t>WOW SO NICE</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>28.23.2.300</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="n">
-        <v>45690.3174537037</v>
+        <v>45690.39326388889</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>28.23.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>b4da18ae-804f-49aa-b867-f2969fc9007e</t>
+          <t>49edf07d-d508-4b98-b21c-044dd479c67c</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Himanshu</t>
+          <t>saurovi Gogoi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUMJioWzGouf68BPXlfz0XpAqL2ILWFXYYD5NOQAxhrnH3Yum4</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVQdz6umodk_yHZhwyxh98vfI_ES4HokKnXGqXLpyQcu42Q8j1T</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>This is the worst of all, it drives customers crazy, it plays with people's emotions This company is proud that no one can do anything to it, so I want you to report this app or file a complaint against you in the police station</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="n">
-        <v>45690.3171412037</v>
+        <v>45690.39239583333</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6a1e2cfc-2255-444a-a8ae-723dd328f637</t>
+          <t>9ce09403-ac4a-49c3-9c3b-8d8392e85dd7</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sakinder Chaudhary</t>
+          <t>Bijoy Das</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ2w4wFMzhDcW_KaSNG6rHh7xLunJT9zhcWxWrtDiBbjyW0Pg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUDfFnWHNI4bhekIA75iEC_qvmPMLexYyELZ6iMu2GiKRU8I_ba</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nise</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2411,76 +2411,84 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="n">
-        <v>45690.31179398148</v>
+        <v>45690.38534722223</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10ad955e-92cb-4500-be14-db0139648af9</t>
+          <t>0ff2c60f-ae32-4ed1-8167-d9e7793ee3e2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Siddaraju Siddu</t>
+          <t>Neeta Udavant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9RpAQIHzwba9jECR5iaUzsUZtV25vt-M6uIDdtn0fUihYgeZr</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLcVL06OI7eKtjWUaq2NIrw4PWDJJDOHqhbL50B6l4OEAUf7A=mo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Worst delivery service not my adress delivery service boy.not come to address return the product very poor service</t>
+          <t>Amazon is the best</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45690.31023148148</v>
+        <v>45690.38293981482</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>411fd7d6-57fe-4e44-aae4-f7a4dc65d44c</t>
+          <t>23676e23-52ec-470e-a279-033726ecaaf3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nasika Sai sandeep</t>
+          <t>Layee Kharsi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWU0bUAnzYRI77Hb52B5wURyEv38qkDaYx2EMCOMLfEeTRQ3Dkb</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIKGiNcIx11cW4Zt_ZlNkFxcp9DM5_N2sUywS0mvKYWuX0TAA=mo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Amazon is a great online shopping app.the offers and sales are awesome.</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2489,41 +2497,33 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>26.16.2.350</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="n">
-        <v>45690.30849537037</v>
+        <v>45690.37326388889</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>26.16.2.350</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4741ea58-4ace-40bb-856d-a5a06587da50</t>
+          <t>e7826b2d-9a0c-4db1-a502-5570879d24d1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pk Kumar</t>
+          <t>Sonu Nayak</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX_eupnsmbBdQjrvzw_tLxeyknyWYsh0sMfDeyB373a8o7Y6pg-</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW2nJhLGcXaINHlzl5NX95XtVSMjxuWQChSX8arZK7bYVM77lzY</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Best app</t>
+          <t>👍👍👍👍👍 very good</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2534,39 +2534,39 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22.7.0.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45690.30532407408</v>
+        <v>45690.37005787037</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>22.7.0.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ca4184ab-e450-4b89-b1a2-7f310a889723</t>
+          <t>28bf0241-ea28-4727-bdfa-cf65a2778eea</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Priyam Roy</t>
+          <t>Ghanchiriyan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIxm5bLIwi1PRPeVhy37PTT6zB0PBpzpm_fPo5nBKOMBVb6jiE=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWjILh5tH85e0oGbGSVtg-ZuXmgXCucZgBWforKB0cvfk5fQtg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>THIS APP IS SO HELP FULL FOR ONLINE SHOPPING PEOPLE 🏖</t>
+          <t>best</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2577,39 +2577,39 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26.12.0.300</t>
+          <t>28.18.4.300</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45690.30430555555</v>
+        <v>45690.36670138889</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>26.12.0.300</t>
+          <t>28.18.4.300</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>98bdcc45-2daf-4c05-89c3-ef6d544aaf36</t>
+          <t>5d2f4223-80a6-473c-aeb6-414e689a52fe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AAKU KATARA</t>
+          <t>Put up Drew</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJpRKaOfRs-6Fu8hqEG5_D-YZVVbIudqizNubnsx5WKDfRhyw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIs4YkxPtGYm_-vd4U1PHSF2X1t73SeVBebedQ31qj7qyjRuQ=mo</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>superb gajjb maja aa gya</t>
+          <t>👌🥰</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2620,39 +2620,39 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45690.30376157408</v>
+        <v>45690.36466435185</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fc89ec2a-4500-44d8-b9cd-919bf269e8c4</t>
+          <t>d338dff3-e1a8-4f5e-ac4e-7bd2862bece9</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vishal Kumar Singh</t>
+          <t>H Vardhan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUfb298HACxGNQfmzYuVkuK_pX2-1IBM6lZx3pmbkscmYz3rM7E</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUkuwae_JbwuC3YGzGXzN9o4cl1Tggh5GPWtKQjp8p8pviKnzoV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pathetic delivery as well as customer service, delivery guys won't come to deliver and customer service agents will read only monologues</t>
+          <t>Very bad experience, new scam is running by Amazon sellers , they deliver you wrong product and when you return that product the product will be shown in app that its got lost during transit and after that amazon will say that it will be cleared by our inspection team .. and finally you will get reply that you(customer) are frod .you have returned damaged and different product, so they wont return your money or product .. means you got cheated by amazon and you will become cheater. Great job</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2663,77 +2663,77 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45690.3031712963</v>
+        <v>45690.3581712963</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ca5ce2a6-a0db-4cd5-8898-5959a7da964d</t>
+          <t>7bd9c520-4534-47cb-9071-3fef242e4a0c</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rajan Suri</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-pIPz019VvdcajR-JeZkWhs7fUJOugcc6pBFyf_HcrlEXTg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXzuuy1SIu-4fK4xaKMbIWdLweZx0uFxB3jCfd7zQIJ-KzskQvtWQ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pathetic cancelled my order without even letting me know I want to give zero star but there is no option</t>
+          <t>UPI scanner is very slow compared to PhonePe</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10.2.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45690.29532407408</v>
+        <v>45690.35673611111</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>10.2.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>d3d02c63-fb69-4633-8910-259e715119fe</t>
+          <t>d4d2b5c0-5aac-4ecf-9221-c0b0c4c71740</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sathishkumar Sathishkumar</t>
+          <t>Muhammad Ahsan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK48bysYTfFvNWIBG2Kq9lWwRGqCENdqlRxfRA5GyKWzyCCog=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJXn0l_ghQM_dNy0NdiAbyqXf6pGMUXGlUxIxM2rwCCtmZxjA=mo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2749,39 +2749,39 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26.16.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45690.29483796296</v>
+        <v>45690.35246527778</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>26.16.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>40f1ac8c-fabf-4158-ace8-54463183e81c</t>
+          <t>a7e5066d-3800-4e18-9c2f-dadf5e4b00ac</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rajiv Kumar</t>
+          <t>Venky</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJZ9bSJZ9PHSmV7WrUSqiD-i6KWBpPo5BrggbL8nFYNIBTBPw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKoTGFUgxAR4oTczCfZSBOXbEVhy8XgDpmTB09a_byJDbOh2A=mo</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2792,39 +2792,39 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45690.26425925926</v>
+        <v>45690.35057870371</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>93fa3f63-35e2-4e9b-8b46-dd1869962a14</t>
+          <t>6726db63-a39c-4094-a7ba-793dcb87ff5c</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sameer Sha</t>
+          <t>Hema Hem</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWPVVVYkenYsgx8-h5kAn8jN7SbsYAa4KcJBuTQKBfOQ6Ivz_l3</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIZYIWfoNEB9hmVyf6UoCHokaDg25qgcEeX8t9uDS-5hsMpfw=mo</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2835,82 +2835,74 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>16.3.0.300</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45690.25143518519</v>
+        <v>45690.34944444444</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>16.3.0.300</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>b69b66ef-f9ed-4131-94d1-76543427e7ac</t>
+          <t>18f19367-fa95-405e-90c7-2f2577b7a702</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mukesh Pradhan</t>
+          <t>Raffan Shaikh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJU-MNRz-AjvJNkT4UgheTM7V_EOjyg_UTHOeN8LlQtkqZHPA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWmCPMbiiom2_8fZ2kXh4Dudckc_IRK8ZDJH1KzoR5brk2ZdTQ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>Good 👍</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="n">
-        <v>45690.20886574074</v>
+        <v>45690.34487268519</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>53f017a0-807d-4cfe-a3e2-3ae66ab64bcf</t>
+          <t>8fbf4922-98af-4f10-8ac0-695991197c2f</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nilesh Shirode</t>
+          <t>KARTHI M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI5pUuCg506n7HV1oTEFZrv4mR2o6tfz_HHCRNXziWrnwqLxg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIfMa85iI7c9v2PJXcHipTiMjHVFPQ5UwRtx54a63ybxqwtrRE=mo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>good service fast delivery 🚚 thanks for Amazon</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2921,39 +2913,39 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45690.2</v>
+        <v>45690.34403935185</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>29c05355-9d5b-4c33-89b3-20ab14603998</t>
+          <t>0610790e-6887-4e95-9c0b-93a8b9c01b00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Anand Madavi</t>
+          <t>Debanc Sing</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUe4CwjVg8H_Na-1nhZxj84VegI7UzJXJ-82mkOV6dhPp8V6koc</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXEw0uc4B6szdvFybKldFk0jjeAo755cAFUMXnQMpIhbyJnxGE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>good but impru</t>
+          <t>good app for shopping</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2964,39 +2956,39 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45690.19820601852</v>
+        <v>45690.34365740741</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12778145-44f4-4117-876d-6252ccdc6512</t>
+          <t>8bae77a1-838f-473d-bbe7-4076459a9200</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Achiranjit Singha</t>
+          <t>Kashi Ram Godara</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWi3EMWwysVLBhBK5yjNY7BHW3rK0-5h8B-Pg55jEQIEbsa7C0</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLy2OFNAjQQpXzPQ1eB5KCnEzmL8fBv64meQPs7DSIJqTPJGQ=mo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Good app</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3005,71 +2997,71 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="n">
-        <v>45690.18728009259</v>
+        <v>45690.34037037037</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8d93fb56-1100-42bb-8b57-a28c250bebba</t>
+          <t>eb10d93e-a47d-4a43-94b9-e5acc96fd81e</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jiyaa Sharma</t>
+          <t>Koushik Roy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI4gPWugnP-ZdYGlB2PKaUVs186j-NmzAnBveJ5Bvv2bNXavw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVnOzX2_YhaG411PrEjPxUXUTPZrVVNbRE7LeMKBLHIS1GnlEsi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>They don't refund your money when you return the order. They pick-up the return but don't refund the amount.</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="n">
-        <v>45690.16862268518</v>
+        <v>45690.33804398148</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7fd1e26c-944f-43f1-b503-51c2539d1816</t>
+          <t>29a720fa-66f7-4502-b9dd-0d293d37f022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Malik Santosh</t>
+          <t>Kamlash Davi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIGSDaWw0SfmiG-wrHq6DOq0DG-HNa_XFiA-9-OUaJO3w_bDw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9ijrh1_ch62OvYdEcpqER1eCG9Hk0tT8I1dWVBFMcXPzdvQ=mo</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3083,33 +3075,41 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="n">
-        <v>45690.12664351852</v>
+        <v>45690.33149305556</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>e85d9ad4-29f2-4b58-a22f-12bdb0bbb331</t>
+          <t>e602b29d-f6cc-49b2-9375-ba42ab5f5a51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mohit Kumar</t>
+          <t>Pvn Chivas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVPsc1mdDYvHZpeg4szdmDF67lIO2c4QxU-Z9ZOzrI35SQLKuDC</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW4PRlCldOtZkrUgU0tfUDysYIIICSmTMEHOF4P1mXc4xRM3fge</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>kya bolna AMAZON ke bare mein...tarom aur sitaro m ke bare kya bolna...IT SHOULD BE FEELING GREAT</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45690.12660879629</v>
+        <v>45690.3308912037</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3137,22 +3137,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>e39cd0d8-fdfb-46e5-b541-0bb29a4063ed</t>
+          <t>08e63e29-5fd1-4ee8-9afb-2ed8a2f15d70</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Salim Chesam</t>
+          <t>Bikram Das</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLr26KBWJLzs8TheVH7GpcQ1Akvi0Fp11P0JyKMwBLJUfxeqw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-rzcy0HP_5vD08vw9XH3efs55USEP0WVkvvNPjVDh97Am5g=mo</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>I wnt Amazon shopping</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3163,171 +3163,163 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45690.12210648148</v>
+        <v>45690.32357638889</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9972d845-c768-494b-ab04-be4c283fd875</t>
+          <t>9e0ae7ae-dcd7-4231-92b0-39b0b7b99f52</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NGURANG AKIN</t>
+          <t>Shyam Sundar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvMsNJtCV_Z0_QpoP19epfOmE93vJw_pPpGr-rbm55hKwko84F</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL-lc1fWH0xZXsgrnmC-Lc91mkRMHr5UkEXY7s-vWaIbGSoiQ=mo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Good enough but I would recommend the packaging process should be done well</t>
+          <t>Maja nahin aa raha hai</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" s="2" t="n">
-        <v>45690.08975694444</v>
+        <v>45690.31907407408</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>fa3f1f85-9bed-40b0-8eb3-4d5cb75883a6</t>
+          <t>9d6ca3ea-8c50-4c47-b450-db90cdccc12e</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Md Sarfaraj Biswas</t>
+          <t>Harshit kumar Kardam</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKf3o08zbSRE3pP5ehUSH4R0vkdh0vVLXrc6LaWAAaqTJQFPA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWUd_t26ml3kfcMukfw3SYnCVgBASVZx_lVGhBWeYdRPHohh37I</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Automatically app stop working??why</t>
+          <t>Very bad app, my order has been canceled because I took back some items that were on time, but it seems that I have placed the order and am canceling/refunding the order because item defective or broken , I am not stupid that I would do that</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>28.9.0.300</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="n">
-        <v>45690.08699074074</v>
+        <v>45690.3178587963</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>28.9.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7947f56b-7a73-4147-8003-017619417959</t>
+          <t>35ef88b1-de55-4285-8310-a0c7fbd743d7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rajeshwari Raji</t>
+          <t>Rathva Arjun</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXdWumkG8Ai_MgjZo8D-EZzx6JPnJsUxmWCo-fCjm6shH3MizAGwQ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI7V41_nL0zN32-j1eeK5vB0tg-KZ0QDY8PeEDe6tsGtWQdEA=mo</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Amazon mobile app has UI issue in search text field basically overlapping issue</t>
+          <t>Wow nice pic</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="n">
-        <v>45690.08408564814</v>
+        <v>45690.3174537037</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6498476b-dcb8-4349-be67-9b03eee7a74c</t>
+          <t>b4da18ae-804f-49aa-b867-f2969fc9007e</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Archi Srivastava</t>
+          <t>Himanshu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIilupnPJ5VobUyBWHSd17wo8_3oCwJnmhodZOSbyJsCxSKIg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUMJioWzGouf68BPXlfz0XpAqL2ILWFXYYD5NOQAxhrnH3Yum4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Best app</t>
+          <t>This is the worst of all, it drives customers crazy, it plays with people's emotions This company is proud that no one can do anything to it, so I want you to report this app or file a complaint against you in the police station</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="2" t="n">
-        <v>45690.07829861111</v>
+        <v>45690.3171412037</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3336,72 +3328,64 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>d8e0d2ba-324b-4e00-bd6a-08351fa26b1e</t>
+          <t>6a1e2cfc-2255-444a-a8ae-723dd328f637</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Akash Jadhav</t>
+          <t>Sakinder Chaudhary</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXIB4CMCl1VaIxrNP4NfrBBwlNZIBa7AFtGC_9199Tjt3qiPfsI</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ2w4wFMzhDcW_KaSNG6rHh7xLunJT9zhcWxWrtDiBbjyW0Pg=mo</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Amazon giving worst service in india, dont buy anything from Amazon, go with Flipkart. Amzn dont have returne policy, only if received damaged product or quality issue then only they give you replacement. In case if any accessories missing in package then you have to call customer care and they will take your complaint but still there is no gauranty by when you will get your money back. I ordered fans and some accessories was missing. So, i returned it and im waiting for refund from last 20 days</t>
+          <t>Nise</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" s="2" t="n">
-        <v>45690.07001157408</v>
+        <v>45690.31179398148</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5e500d9b-7715-4494-9ead-0ff2387f52d4</t>
+          <t>10ad955e-92cb-4500-be14-db0139648af9</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vikash Meena</t>
+          <t>Siddaraju Siddu</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUyJ4CU7UG4O2u6FHVNnNZ6LL0-VcGWbRKcF8b6fQ1i-yDEpT0V0A</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9RpAQIHzwba9jECR5iaUzsUZtV25vt-M6uIDdtn0fUihYgeZr</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Really bad experience in last 5 months from 15.08.2024 onwards. I placed orders of 24 items and 13 items got cancelled without any reason. Ordered few items twice and they got cancelled automatically. When contacting customer care they are replying that item got defective hence cancelled. But I ordered 4 items and were about to delivered on different dates and he said all got cancelled due to all items being in same package and then said talk over call to know more.Such a awful response.</t>
+          <t>Worst delivery service not my adress delivery service boy.not come to address return the product very poor service</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3409,7 +3393,7 @@
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45690.06883101852</v>
+        <v>45690.31023148148</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3422,100 +3406,108 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1b38032a-e9a0-4d66-9a85-f033390662b1</t>
+          <t>411fd7d6-57fe-4e44-aae4-f7a4dc65d44c</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sharsha87700 (shasha)</t>
+          <t>Nasika Sai sandeep</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ7i5xeVd60rFZwii76uDnMUayJYkbHl7IWAOb4-tQ5-66MdQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWU0bUAnzYRI77Hb52B5wURyEv38qkDaYx2EMCOMLfEeTRQ3Dkb</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bad app</t>
+          <t>Amazon is a great online shopping app.the offers and sales are awesome.</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>26.16.2.350</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45690.05546296296</v>
+        <v>45690.30849537037</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>26.16.2.350</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>d7147a5b-ecef-4a0b-9c55-9101e121c9a9</t>
+          <t>4741ea58-4ace-40bb-856d-a5a06587da50</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Taki The goat</t>
+          <t>Pk Kumar</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWz1JUAMGyoMqwA_ex-Xdd5MJGlMxf0iGbeQTAxY6_ta0EJlol5</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX_eupnsmbBdQjrvzw_tLxeyknyWYsh0sMfDeyB373a8o7Y6pg-</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>I cannot aply cod for my order, what the heck is this ??</t>
+          <t>Best app</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>22.7.0.300</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="n">
-        <v>45690.05299768518</v>
+        <v>45690.30532407408</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>22.7.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>59c6d33f-c078-443f-8b02-5d2f1502b2f6</t>
+          <t>ca4184ab-e450-4b89-b1a2-7f310a889723</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sara Khan</t>
+          <t>Priyam Roy</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXoQC73dQH-FwO7FzjmMevUOulQr-h1URR_JqlcTiks6QxAuwSfRA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIxm5bLIwi1PRPeVhy37PTT6zB0PBpzpm_fPo5nBKOMBVb6jiE=mo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>original product</t>
+          <t>THIS APP IS SO HELP FULL FOR ONLINE SHOPPING PEOPLE 🏖</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3526,39 +3518,39 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.12.0.300</t>
         </is>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45690.0506712963</v>
+        <v>45690.30430555555</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.12.0.300</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8e1a94e3-f012-4e40-a675-e5426a2f11e0</t>
+          <t>98bdcc45-2daf-4c05-89c3-ef6d544aaf36</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ashok Rajput</t>
+          <t>AAKU KATARA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUd16OwqnRQkCphptIV2TGpagIxIVzyx10Mysnbmo_WATOzS3Se</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJpRKaOfRs-6Fu8hqEG5_D-YZVVbIudqizNubnsx5WKDfRhyw=mo</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>very good 👍</t>
+          <t>superb gajjb maja aa gya</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3569,43 +3561,43 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45690.0500462963</v>
+        <v>45690.30376157408</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>db69cb68-5959-4557-9e38-c623ff699eb6</t>
+          <t>fc89ec2a-4500-44d8-b9cd-919bf269e8c4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Prabhat Kumar Meher</t>
+          <t>Vishal Kumar Singh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXzW2o8bwCYOkPAWVlYPOEEJfXr5o8h7ApDBfDffknvJVdQve3bgQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUfb298HACxGNQfmzYuVkuK_pX2-1IBM6lZx3pmbkscmYz3rM7E</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>very good</t>
+          <t>Pathetic delivery as well as customer service, delivery guys won't come to deliver and customer service agents will read only monologues</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3616,7 +3608,7 @@
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45690.03870370371</v>
+        <v>45690.3031712963</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3629,22 +3621,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>c122c186-411f-4690-a23a-ba9a81b7fa63</t>
+          <t>ca5ce2a6-a0db-4cd5-8898-5959a7da964d</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kuppan Elumalai</t>
+          <t>Rajan Suri</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVwKDHD14csYlXj6ZIObfPNKp74yL6ZxbbKjnrVSxSoIK1Xh6Ps</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-pIPz019VvdcajR-JeZkWhs7fUJOugcc6pBFyf_HcrlEXTg=mo</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Grocery items delivery not proper and same items missing, delivery person and warehouse person liked with forgery Contact customer service Very very worst service Totally waste my valuable times and money. So don't buying grocery</t>
+          <t>Pathetic cancelled my order without even letting me know I want to give zero star but there is no option</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3653,28 +3645,36 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10.2.0.300</t>
+        </is>
+      </c>
       <c r="H78" s="2" t="n">
-        <v>45690.02438657408</v>
+        <v>45690.29532407408</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>88e94606-ad99-4e85-b764-25a3d80a8305</t>
+          <t>d3d02c63-fb69-4633-8910-259e715119fe</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mohammed Riyaz</t>
+          <t>Sathishkumar Sathishkumar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX4Psq91u-1q-aImqIkk4kX0RXQfNxELDRYKRHk1qEs-GHo-RoC</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK48bysYTfFvNWIBG2Kq9lWwRGqCENdqlRxfRA5GyKWzyCCog=mo</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3690,82 +3690,82 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.16.2.350</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45690.02234953704</v>
+        <v>45690.29483796296</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.16.2.350</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10bb98e1-0fba-448c-842b-cd82061027a1</t>
+          <t>40f1ac8c-fabf-4158-ace8-54463183e81c</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Khan Mohsin</t>
+          <t>Rajiv Kumar</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKJWZAc52lLwIYjl8nqHckdyfYTq77LC__vQFI3GlNtYSqOwA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJZ9bSJZ9PHSmV7WrUSqiD-i6KWBpPo5BrggbL8nFYNIBTBPw=mo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>I have ordered item and it shipped to my address after shipping it shows it is restricted area and we cannot deliver item to ur place and need action.I don't get it why it shows? item get returned.its waste app. It's again happening with my other products also all because of seller. Item damaged returned to seller and again booked then on last day of delivery it got damaged and then againnsame cycle. Currently happening</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45690.0141087963</v>
+        <v>45690.26425925926</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20e52a55-3c47-4524-9c8c-aadf6c69a7f4</t>
+          <t>93fa3f63-35e2-4e9b-8b46-dd1869962a14</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vishnu Kumar Vishnu Kumar</t>
+          <t>Sameer Sha</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWNIyeYEStIM14Z6Mt2vEM-zX-0O6Ecy7zIq_-njmQjliSW2lNF</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWPVVVYkenYsgx8-h5kAn8jN7SbsYAa4KcJBuTQKBfOQ6Ivz_l3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45690.01201388889</v>
+        <v>45690.25143518519</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3793,26 +3793,26 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>91ad3839-394e-4b05-91bc-c3bef5cb7aee</t>
+          <t>b69b66ef-f9ed-4131-94d1-76543427e7ac</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SHAMBHU SINGH</t>
+          <t>Mukesh Pradhan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWaAzRdc1riJmXj8RwuZOQFVKcjIWcyxhsF-tw1lynIXGdX_sR1</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJU-MNRz-AjvJNkT4UgheTM7V_EOjyg_UTHOeN8LlQtkqZHPA=mo</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45690.0108912037</v>
+        <v>45690.20886574074</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3836,22 +3836,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9a5fb2e0-ba02-45c0-b669-1a8112a176c1</t>
+          <t>53f017a0-807d-4cfe-a3e2-3ae66ab64bcf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>Nilesh Shirode</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLfbq3-PoFaMc92vn4jHG9raI2nNYX4YFBeisaZ9vaYuIFM=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI5pUuCg506n7HV1oTEFZrv4mR2o6tfz_HHCRNXziWrnwqLxg=mo</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Best shopping app everyone should try it once</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45690.01032407407</v>
+        <v>45690.2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3879,22 +3879,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ca5e4ff6-b793-4883-8ea5-3bfe35fc1b22</t>
+          <t>29c05355-9d5b-4c33-89b3-20ab14603998</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gesala Durga</t>
+          <t>Anand Madavi</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIR_TwFcyAzpRhdGAWa64q0XPNqzSkeF9KJTIjcPtsdolp27Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUe4CwjVg8H_Na-1nhZxj84VegI7UzJXJ-82mkOV6dhPp8V6koc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>super 👍👍👍😍 Happy 😁😁😀</t>
+          <t>good but impru</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45690.00532407407</v>
+        <v>45690.19820601852</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3922,57 +3922,65 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>67d5493c-824b-4b3f-a182-7385af962c84</t>
+          <t>12778145-44f4-4117-876d-6252ccdc6512</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nawal Rautela</t>
+          <t>Achiranjit Singha</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJqFnRQxS_Quy_oFxDuBrA-u7fbGFgnuwdH2F2CBZ3jW_4LgQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWi3EMWwysVLBhBK5yjNY7BHW3rK0-5h8B-Pg55jEQIEbsa7C0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bohot ganda app</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="n">
-        <v>45690.00032407408</v>
+        <v>45690.18728009259</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>fa57ee83-8832-4352-b57c-f42b66fb2396</t>
+          <t>8d93fb56-1100-42bb-8b57-a28c250bebba</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sasi gorajana</t>
+          <t>Jiyaa Sharma</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK5O1WddbososNKytmIU6EKHYz6nyQw_jTnxOEj--oaPNdjeQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI4gPWugnP-ZdYGlB2PKaUVs186j-NmzAnBveJ5Bvv2bNXavw=mo</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Orders delivered without consent of the buyer. Worst experience with Amazon. User did not receive the order; they are showing it as delivered without OTP. It seems to be a scam.</t>
+          <t>They don't refund your money when you return the order. They pick-up the return but don't refund the amount.</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3983,7 +3991,7 @@
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" s="2" t="n">
-        <v>45689.99685185185</v>
+        <v>45690.16862268518</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3992,65 +4000,57 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>17549094-e646-4bb2-a2a3-a1088e0c052c</t>
+          <t>7fd1e26c-944f-43f1-b503-51c2539d1816</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Niket Naik</t>
+          <t>Malik Santosh</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJdX2fK1fvwdIB_goeVJd4ta0snx1--WdyktassK1K8p8VM=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIGSDaWw0SfmiG-wrHq6DOq0DG-HNa_XFiA-9-OUaJO3w_bDw=mo</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Not able to scan QR code using Amazon pay. When clicking on the scan option the screen becomes little dark and nothing happens</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" s="2" t="n">
-        <v>45689.99201388889</v>
+        <v>45690.12664351852</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8c749d80-7f3d-4980-8c68-96c2884f55fe</t>
+          <t>e85d9ad4-29f2-4b58-a22f-12bdb0bbb331</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sangeeta Masih</t>
+          <t>Mohit Kumar</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUsRKVM70iMFxVgZCoOqaoPBbKsKQnhPGvz1Psu6rQufZB9PpGC</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVPsc1mdDYvHZpeg4szdmDF67lIO2c4QxU-Z9ZOzrI35SQLKuDC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>good 😊</t>
+          <t>best</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4061,39 +4061,39 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45689.98729166666</v>
+        <v>45690.12660879629</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>132ef342-c17c-4b66-9742-a9b2abcd5978</t>
+          <t>e39cd0d8-fdfb-46e5-b541-0bb29a4063ed</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dãrshâñ Rãvål Spilinter Dèlétêd</t>
+          <t>Salim Chesam</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUhQLSuZLtUFYnFoAWT6vJ3uCYwEerFg0lA_2rF53JWr-uhkloJtw</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLr26KBWJLzs8TheVH7GpcQ1Akvi0Fp11P0JyKMwBLJUfxeqw=mo</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>good 💯</t>
+          <t>I wnt Amazon shopping</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4104,163 +4104,171 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28.16.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45689.98703703703</v>
+        <v>45690.12210648148</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>28.16.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12d6ca55-6089-44a3-8c18-8dfaa2da63a1</t>
+          <t>9972d845-c768-494b-ab04-be4c283fd875</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hemant Sirsath</t>
+          <t>NGURANG AKIN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKaROM0f_jXU0tl0fw3W-memASVDts9KrTRa3BAsXlDCIwkEQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvMsNJtCV_Z0_QpoP19epfOmE93vJw_pPpGr-rbm55hKwko84F</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Yeh app or inki service flipkart se bhot achhi h</t>
+          <t>Good enough but I would recommend the packaging process should be done well</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H90" s="2" t="n">
-        <v>45689.98702546296</v>
+        <v>45690.08975694444</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5bf319c0-47be-4ec8-93f3-17c0f8e89684</t>
+          <t>fa3f1f85-9bed-40b0-8eb3-4d5cb75883a6</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ARNAB DAS</t>
+          <t>Md Sarfaraj Biswas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUg9hJ4I6XFVAaMCTawUo9_r1K_VelJp08P7_N32y-Vvzd1eFk</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKf3o08zbSRE3pP5ehUSH4R0vkdh0vVLXrc6LaWAAaqTJQFPA=mo</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Automatically app stop working??why</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" s="2" t="n">
-        <v>45689.98671296296</v>
+        <v>45690.08699074074</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>183e7e67-f600-4aef-bf36-58bc8372c657</t>
+          <t>7947f56b-7a73-4147-8003-017619417959</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Shiva Goud</t>
+          <t>Rajeshwari Raji</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIEcm5tIGGIbC5APSniI99yV0mU2r0azveQSdoipFLLKfOfQA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXdWumkG8Ai_MgjZo8D-EZzx6JPnJsUxmWCo-fCjm6shH3MizAGwQ</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Many issues</t>
+          <t>Amazon mobile app has UI issue in search text field basically overlapping issue</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H92" s="2" t="n">
-        <v>45689.98077546297</v>
+        <v>45690.08408564814</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>546a8c93-0cfb-48f5-8356-cff1d6bde5e2</t>
+          <t>6498476b-dcb8-4349-be67-9b03eee7a74c</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rakesh Kumar meena</t>
+          <t>Archi Srivastava</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLcnpFGGpPaXv8zKi8ZhEzBIdp5qoBrcTnm84gwsHvui0b1yQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIilupnPJ5VobUyBWHSd17wo8_3oCwJnmhodZOSbyJsCxSKIg=mo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Poor sarvice</t>
+          <t>Best app</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" s="2" t="n">
-        <v>45689.98043981481</v>
+        <v>45690.07829861111</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4269,108 +4277,108 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cf4d5f09-df9a-4d01-952c-e2801b442e0b</t>
+          <t>d8e0d2ba-324b-4e00-bd6a-08351fa26b1e</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ragul S</t>
+          <t>Akash Jadhav</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJbMYxcRUXhM0YBP2mb5NjaMcF7hVm33xM6IaZ3Mka4-Mpe3A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXIB4CMCl1VaIxrNP4NfrBBwlNZIBa7AFtGC_9199Tjt3qiPfsI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>👍</t>
+          <t>Amazon giving worst service in india, dont buy anything from Amazon, go with Flipkart. Amzn dont have returne policy, only if received damaged product or quality issue then only they give you replacement. In case if any accessories missing in package then you have to call customer care and they will take your complaint but still there is no gauranty by when you will get your money back. I ordered fans and some accessories was missing. So, i returned it and im waiting for refund from last 20 days</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45689.97774305556</v>
+        <v>45690.07001157408</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8fb1d673-aae5-4724-850d-44e228f03700</t>
+          <t>5e500d9b-7715-4494-9ead-0ff2387f52d4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Abhimanyu Patel</t>
+          <t>Vikash Meena</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUBAaC3v4IIt01axk7wYIr9BIvw3of1KaBf-LPscdTVskZaS_NH</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUyJ4CU7UG4O2u6FHVNnNZ6LL0-VcGWbRKcF8b6fQ1i-yDEpT0V0A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>Really bad experience in last 5 months from 15.08.2024 onwards. I placed orders of 24 items and 13 items got cancelled without any reason. Ordered few items twice and they got cancelled automatically. When contacting customer care they are replying that item got defective hence cancelled. But I ordered 4 items and were about to delivered on different dates and he said all got cancelled due to all items being in same package and then said talk over call to know more.Such a awful response.</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45689.97376157407</v>
+        <v>45690.06883101852</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3935ae4c-bca0-4a53-8d54-0bb070300354</t>
+          <t>1b38032a-e9a0-4d66-9a85-f033390662b1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ronald Rupini</t>
+          <t>sharsha87700 (shasha)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU7rLbE0QkqRB3D2pMoN9rUfPJPimVJqWsOUmzMa1MdpGxWg2cC</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ7i5xeVd60rFZwii76uDnMUayJYkbHl7IWAOb4-tQ5-66MdQ=mo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Some one hack my Amazon account, no reply from Amazon teams..... Worst App...... I don't receive any help from Amazon team can't recover my accounts.... I think need to complaint to police station.... From 2024</t>
+          <t>bad app</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4381,39 +4389,39 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45689.95773148148</v>
+        <v>45690.05546296296</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>9c93e8f7-d4ec-4fd7-97b2-e21e89e59eb2</t>
+          <t>d7147a5b-ecef-4a0b-9c55-9101e121c9a9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rahmatulla Mujawar</t>
+          <t>Taki The goat</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIIV4NEHvY38pqXZHt6tuKkNcXp-cJ2m1QgZ6HV0mTX6NiSLA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWz1JUAMGyoMqwA_ex-Xdd5MJGlMxf0iGbeQTAxY6_ta0EJlol5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Very 3rd class app not buy any one</t>
+          <t>I cannot aply cod for my order, what the heck is this ??</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4422,41 +4430,33 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" s="2" t="n">
-        <v>45689.95347222222</v>
+        <v>45690.05299768518</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>979b87b3-7cf3-4a18-a09a-d6c01a2b8e9d</t>
+          <t>59c6d33f-c078-443f-8b02-5d2f1502b2f6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sarthak Dave</t>
+          <t>Sara Khan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKohGq7WSXuyLp0B1k43CIeHsk8y3Qsn0ugXCKwKMbjOvSmmAk=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXoQC73dQH-FwO7FzjmMevUOulQr-h1URR_JqlcTiks6QxAuwSfRA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>This application is better than every application i think 💬🤔 this application has 5 on 5 in every thing yah! It's dilivery, it's search any things THA THAT'S that's very truelly greatly good no VERY GOOD APPLICATION No i doesn't talking any jokes yah! Seriously this application is better than every application I LOVE AMAZON AND VERY MUCH LOVE FROM GUJARAT INDIA AHMEDABAD 😁😁😁😁😁😤😤😤😤😤😘😘</t>
+          <t>original product</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4467,39 +4467,39 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45689.95246527778</v>
+        <v>45690.0506712963</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>59a1d83a-a0be-40b4-9748-d82d612bec5d</t>
+          <t>8e1a94e3-f012-4e40-a675-e5426a2f11e0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>roshan sahu</t>
+          <t>Ashok Rajput</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKch5Xp-bHIFZ4eXvlj9oH3fcIRvTddaW7OEjdNeSOsJ_qmS3k=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUd16OwqnRQkCphptIV2TGpagIxIVzyx10Mysnbmo_WATOzS3Se</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>best app</t>
+          <t>very good 👍</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45689.95105324074</v>
+        <v>45690.0500462963</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4527,57 +4527,65 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>642af16f-3e7d-4fa9-b06d-504c216d07f3</t>
+          <t>db69cb68-5959-4557-9e38-c623ff699eb6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Prem Lal</t>
+          <t>Prabhat Kumar Meher</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI_ZydSDIsWntg_iu8qAcrAqdGgb0SPoI-GFjHFO9qz63Ly=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXzW2o8bwCYOkPAWVlYPOEEJfXr5o8h7ApDBfDffknvJVdQve3bgQ</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bhut hi karb hai yai ki jo price rate hai kuch wakat kai bad badal jata hai aur to aur kuch saman ki gudwata karb bhi hota hai</t>
+          <t>very good</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="n">
-        <v>45689.95059027777</v>
+        <v>45690.03870370371</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>50ac6651-43fd-40a3-83a6-027b10c7dd27</t>
+          <t>c122c186-411f-4690-a23a-ba9a81b7fa63</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nikhil Chauhan</t>
+          <t>Kuppan Elumalai</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLns9YRrXgn0MyyG2Z8Jd-5XrKhxkLxMSo4xVENp12UR7gXuQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVwKDHD14csYlXj6ZIObfPNKp74yL6ZxbbKjnrVSxSoIK1Xh6Ps</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Worst app I ever seen in my life I ordered something aad today is delhivery of this item item couldn't delivered it's is very important item to me but amazone break my trust on itself .I never ever buy anything form Amazon 🤮🤮🤮</t>
+          <t>Grocery items delivery not proper and same items missing, delivery person and warehouse person liked with forgery Contact customer service Very very worst service Totally waste my valuable times and money. So don't buying grocery</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4588,7 +4596,7 @@
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" s="2" t="n">
-        <v>45689.94517361111</v>
+        <v>45690.02438657408</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4597,100 +4605,108 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>f6d0e0dd-157d-4658-8b80-b4d7b597e10f</t>
+          <t>88e94606-ad99-4e85-b764-25a3d80a8305</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>keshav sharma</t>
+          <t>Mohammed Riyaz</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX9yI9SvuAYwYN4a-IcZhoe2yCWdr6-_FdXp7A30QK1ussNehaB</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX4Psq91u-1q-aImqIkk4kX0RXQfNxELDRYKRHk1qEs-GHo-RoC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Best app</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="n">
-        <v>45689.93628472222</v>
+        <v>45690.02234953704</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6e4550a8-0868-4581-886f-092a170c58ad</t>
+          <t>10bb98e1-0fba-448c-842b-cd82061027a1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sabre Alam</t>
+          <t>Khan Mohsin</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOjGYzTK682gUGx1kS8gJ4TQKBe-lxSY0AJDGk0quckWM_0g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKJWZAc52lLwIYjl8nqHckdyfYTq77LC__vQFI3GlNtYSqOwA=mo</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>super amazon ke liye aa bahot believe</t>
+          <t>I have ordered item and it shipped to my address after shipping it shows it is restricted area and we cannot deliver item to ur place and need action.I don't get it why it shows? item get returned.its waste app. It's again happening with my other products also all because of seller. Item damaged returned to seller and again booked then on last day of delivery it got damaged and then againnsame cycle. Currently happening</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45689.93487268518</v>
+        <v>45690.0141087963</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9767a413-d9fc-4a52-998f-62d0f7740106</t>
+          <t>20e52a55-3c47-4524-9c8c-aadf6c69a7f4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jivitesh P</t>
+          <t>Vishnu Kumar Vishnu Kumar</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUy_FHjdqmEfR4vcKyXYmcBaF9jd8yVHQ3crgsP1YIkeUSwG-bz</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWNIyeYEStIM14Z6Mt2vEM-zX-0O6Ecy7zIq_-njmQjliSW2lNF</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Best app ever for payments like upi, scan QR and shopping</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4699,76 +4715,84 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="n">
-        <v>45689.93373842593</v>
+        <v>45690.01201388889</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>d4c6601c-e254-4176-a54a-2ffdcda641f3</t>
+          <t>91ad3839-394e-4b05-91bc-c3bef5cb7aee</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Goswami Yogesh</t>
+          <t>SHAMBHU SINGH</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJNK6WAUOdmYeInPr6Uya2-xC4fDFId__j0LDyelIRLE9m1EhE=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWaAzRdc1riJmXj8RwuZOQFVKcjIWcyxhsF-tw1lynIXGdX_sR1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Add city bus booking and give 5 Star rating</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45689.93053240741</v>
+        <v>45690.0108912037</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3051a3e0-0119-4bc8-ad27-27c521bf4747</t>
+          <t>9a5fb2e0-ba02-45c0-b669-1a8112a176c1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ridhi Mawri</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK6tEYqvI_2d26Vttm-zcvl5XsS8cKbwFdaLC-WKzEFZlza7w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLfbq3-PoFaMc92vn4jHG9raI2nNYX4YFBeisaZ9vaYuIFM=mo</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>gd app</t>
+          <t>Best shopping app everyone should try it once</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4779,168 +4803,152 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H106" s="2" t="n">
-        <v>45689.92900462963</v>
+        <v>45690.01032407407</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>a3f9fec9-5d94-49b9-8d5b-0d73db8155a1</t>
+          <t>ca5e4ff6-b793-4883-8ea5-3bfe35fc1b22</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Javed iqbal</t>
+          <t>Gesala Durga</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXnNyCekZWFKjEvicGUcgdnPAQi9OuSDzEC4Stvkbylyyj7kTvZ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIR_TwFcyAzpRhdGAWa64q0XPNqzSkeF9KJTIjcPtsdolp27Q=mo</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>good service</t>
+          <t>super 👍👍👍😍 Happy 😁😁😀</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H107" s="2" t="n">
-        <v>45689.92761574074</v>
+        <v>45690.00532407407</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>838655f9-a996-4c90-a8a2-ea42b0478b54</t>
+          <t>67d5493c-824b-4b3f-a182-7385af962c84</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Asgar Alvi</t>
+          <t>Nawal Rautela</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIHmUI1PEB8B56R1FUpf3XALFHxajGxW-bJVvZ8JpViUMtLdw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJqFnRQxS_Quy_oFxDuBrA-u7fbGFgnuwdH2F2CBZ3jW_4LgQ=mo</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>bahut achchas hai</t>
+          <t>Bohot ganda app</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" s="2" t="n">
-        <v>45689.92486111111</v>
+        <v>45690.00032407408</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>c781e52e-6a77-48db-8491-b42e036cc95c</t>
+          <t>fa57ee83-8832-4352-b57c-f42b66fb2396</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANUSHKA JOSHI</t>
+          <t>sasi gorajana</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ77Denu6T4qpaIC5Z_6ClpAn17RdK9hKygL6OAQvho_b4S5g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK5O1WddbososNKytmIU6EKHYz6nyQw_jTnxOEj--oaPNdjeQ=mo</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>It's very nice 🙂💯</t>
+          <t>Orders delivered without consent of the buyer. Worst experience with Amazon. User did not receive the order; they are showing it as delivered without OTP. It seems to be a scam.</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>26.20.0.300</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" s="2" t="n">
-        <v>45689.92086805555</v>
+        <v>45689.99685185185</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>26.20.0.300</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6de087c4-25fa-477b-a4bf-ebe4ac9e9d7b</t>
+          <t>17549094-e646-4bb2-a2a3-a1088e0c052c</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Usman, khan, Srk</t>
+          <t>Niket Naik</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVH9OfSRB62Ixw1OWNYuw8CbNA_n8ivMs3nTXRxY7Oo61EN22U</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJdX2fK1fvwdIB_goeVJd4ta0snx1--WdyktassK1K8p8VM=mo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Very bad</t>
+          <t>Not able to scan QR code using Amazon pay. When clicking on the scan option the screen becomes little dark and nothing happens</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4955,7 +4963,7 @@
         </is>
       </c>
       <c r="H110" s="2" t="n">
-        <v>45689.9178125</v>
+        <v>45689.99201388889</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4968,65 +4976,65 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ce548f3e-4e26-4d34-97c9-ddefaf5d25c4</t>
+          <t>8c749d80-7f3d-4980-8c68-96c2884f55fe</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BARU ARAVIND</t>
+          <t>Sangeeta Masih</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXY4UTbdxK5EJ_ixRGNk-2X42gWmMBGn9_FTSRlrVkLIzX4XKTZ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUsRKVM70iMFxVgZCoOqaoPBbKsKQnhPGvz1Psu6rQufZB9PpGC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Very good</t>
+          <t>good 😊</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H111" s="2" t="n">
-        <v>45689.91453703704</v>
+        <v>45689.98729166666</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6c582c8a-acf1-4b1b-8158-efdc5466f184</t>
+          <t>132ef342-c17c-4b66-9742-a9b2abcd5978</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Arvind Rawat</t>
+          <t>Dãrshâñ Rãvål Spilinter Dèlétêd</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXptMBKExoFQTVo62RhNkPc98mbe8LltZeAr0rEfD-med66_1vC</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUhQLSuZLtUFYnFoAWT6vJ3uCYwEerFg0lA_2rF53JWr-uhkloJtw</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>good products amazon</t>
+          <t>good 💯</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5037,82 +5045,74 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.16.0.300</t>
         </is>
       </c>
       <c r="H112" s="2" t="n">
-        <v>45689.91394675926</v>
+        <v>45689.98703703703</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.16.0.300</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>738c0632-3a7c-4fa6-b814-47be5d64e483</t>
+          <t>12d6ca55-6089-44a3-8c18-8dfaa2da63a1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Biswajit Dolui</t>
+          <t>Hemant Sirsath</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXacIQRkQrpHwZVeQyw7nq7D4WqDzGwcRX70BiS8EHT8R7sAH4</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKaROM0f_jXU0tl0fw3W-memASVDts9KrTRa3BAsXlDCIwkEQ=mo</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Yeh app or inki service flipkart se bhot achhi h</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" s="2" t="n">
-        <v>45689.913125</v>
+        <v>45689.98702546296</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4769b4ec-fc34-449f-b095-724c561577b4</t>
+          <t>5bf319c0-47be-4ec8-93f3-17c0f8e89684</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mahi Rizu</t>
+          <t>ARNAB DAS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVCFndj90FsPwCvcb6dMMETiqkBxe7q3jPr4PJkK0vaPalHWgog</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUg9hJ4I6XFVAaMCTawUo9_r1K_VelJp08P7_N32y-Vvzd1eFk</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45689.91159722222</v>
+        <v>45689.98671296296</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5140,65 +5140,57 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>71058aef-cd81-4855-8acd-c639db5f9928</t>
+          <t>183e7e67-f600-4aef-bf36-58bc8372c657</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Karthikeyan S</t>
+          <t>Shiva Goud</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVK7w4fzGRoU7NguocZu0_aNE28wXVDE5C2ku9kMzT5usGnxUrj</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIEcm5tIGGIbC5APSniI99yV0mU2r0azveQSdoipFLLKfOfQA=mo</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Pharmacy is total waste. Cant even upload prescription. If I go for doctor consultation it's working so fine. Just marketing strategy waste of time. Don't book any medicine through Amazon</t>
+          <t>Many issues</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" s="2" t="n">
-        <v>45689.90871527778</v>
+        <v>45689.98077546297</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3403689e-da55-46a2-885f-dce4ffc83e59</t>
+          <t>546a8c93-0cfb-48f5-8356-cff1d6bde5e2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Aseena Shiyas</t>
+          <t>Rakesh Kumar meena</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXrctSKG3ePO3m_dyEG4WXMDy4_9jkuJqknON-0kyv19AHlPlw</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLcnpFGGpPaXv8zKi8ZhEzBIdp5qoBrcTnm84gwsHvui0b1yQ=mo</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Very very waste 👎👎👎</t>
+          <t>Poor sarvice</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5207,213 +5199,205 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>28.21.4.300</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" s="2" t="n">
-        <v>45689.90460648148</v>
+        <v>45689.98043981481</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>28.21.4.300</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0d910872-2630-442b-a509-4c8c711616ca</t>
+          <t>cf4d5f09-df9a-4d01-952c-e2801b442e0b</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ajay Raut</t>
+          <t>Ragul S</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLAubHutm6nXKHlX9jKnH7geMkOUt7OZSz5jY19DHgRycVTlQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJbMYxcRUXhM0YBP2mb5NjaMcF7hVm33xM6IaZ3Mka4-Mpe3A=mo</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>28.21.4.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H117" s="2" t="n">
-        <v>45689.89523148148</v>
+        <v>45689.97774305556</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>28.21.4.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>bb5ae72b-1d48-442b-9992-2434b4bec63b</t>
+          <t>8fb1d673-aae5-4724-850d-44e228f03700</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Nidhi Kaushik</t>
+          <t>Abhimanyu Patel</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIhssZvJ8XPznJ4PWe04lFHNZa0LOKhbOaTha4JIdXTEfo_UA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUBAaC3v4IIt01axk7wYIr9BIvw3of1KaBf-LPscdTVskZaS_NH</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>very baad experience my very special day was cancelled because my parcel is delayed this could happen very baad experience for me</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45689.89498842593</v>
+        <v>45689.97376157407</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>34940b0a-90f0-40c2-8341-8f74d87e4f7f</t>
+          <t>3935ae4c-bca0-4a53-8d54-0bb070300354</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Seetha Hari Seetha Hari</t>
+          <t>Ronald Rupini</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKptVuxXsNtrR5qTJ8IcZFzf8Y-WLgKoXRorFj82GXit8v83g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU7rLbE0QkqRB3D2pMoN9rUfPJPimVJqWsOUmzMa1MdpGxWg2cC</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>super</t>
+          <t>Some one hack my Amazon account, no reply from Amazon teams..... Worst App...... I don't receive any help from Amazon team can't recover my accounts.... I think need to complaint to police station.... From 2024</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45689.89461805556</v>
+        <v>45689.95773148148</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>03e86165-9ea7-40ce-9ffd-2158bb497d74</t>
+          <t>9c93e8f7-d4ec-4fd7-97b2-e21e89e59eb2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pushpam Priya</t>
+          <t>Rahmatulla Mujawar</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW9dVxsMKfQWWorZ1edxLcGLfdfGHjjIYAwsiCpPbNTUPVpAY0M</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIIV4NEHvY38pqXZHt6tuKkNcXp-cJ2m1QgZ6HV0mTX6NiSLA=mo</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Very 3rd class app not buy any one</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45689.88962962963</v>
+        <v>45689.95347222222</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cac7b91d-e6b3-4f17-b775-850e8dc49b30</t>
+          <t>979b87b3-7cf3-4a18-a09a-d6c01a2b8e9d</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>deepa Angadi</t>
+          <t>Sarthak Dave</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL8PgkJBFyuW9xGMzZ8miJO6IfZ-_RfvddApw53ySo5Qn-m0Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKohGq7WSXuyLp0B1k43CIeHsk8y3Qsn0ugXCKwKMbjOvSmmAk=mo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Amazon is a best app for online shopping</t>
+          <t>This application is better than every application i think 💬🤔 this application has 5 on 5 in every thing yah! It's dilivery, it's search any things THA THAT'S that's very truelly greatly good no VERY GOOD APPLICATION No i doesn't talking any jokes yah! Seriously this application is better than every application I LOVE AMAZON AND VERY MUCH LOVE FROM GUJARAT INDIA AHMEDABAD 😁😁😁😁😁😤😤😤😤😤😘😘</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5424,332 +5408,308 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28.17.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45689.88746527778</v>
+        <v>45689.95246527778</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>28.17.0.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>461192b7-3a94-4563-8ba8-6e6d285ffcd1</t>
+          <t>59a1d83a-a0be-40b4-9748-d82d612bec5d</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Srinu C</t>
+          <t>roshan sahu</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUwx3-ttRGMrfO2xgK0EuO9WXZEh-LVJ1lO3_MCAOuVZ31jIc_oXQ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKch5Xp-bHIFZ4eXvlj9oH3fcIRvTddaW7OEjdNeSOsJ_qmS3k=mo</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Worst delivery service</t>
+          <t>best app</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45689.88648148148</v>
+        <v>45689.95105324074</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3ea1c66f-6ccb-463a-a3e6-70bcf310d4c5</t>
+          <t>642af16f-3e7d-4fa9-b06d-504c216d07f3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ishuraj singh</t>
+          <t>Prem Lal</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUxeJg6NrpDgZ7-xUUSVTrFOfK6-7HTzO8PS9QL_240vBcLqNyB</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI_ZydSDIsWntg_iu8qAcrAqdGgb0SPoI-GFjHFO9qz63Ly=mo</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Bhut hi karb hai yai ki jo price rate hai kuch wakat kai bad badal jata hai aur to aur kuch saman ki gudwata karb bhi hota hai</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" s="2" t="n">
-        <v>45689.88075231481</v>
+        <v>45689.95059027777</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>31a771bf-240d-4394-be65-75e6bd9c4fa7</t>
+          <t>50ac6651-43fd-40a3-83a6-027b10c7dd27</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mostakim Sordar</t>
+          <t>Nikhil Chauhan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJZ08hMvgzKyUXPYDA2MQctkNna9bz0hqQKTlaow4zF134F=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLns9YRrXgn0MyyG2Z8Jd-5XrKhxkLxMSo4xVENp12UR7gXuQ=mo</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Nice app</t>
+          <t>Worst app I ever seen in my life I ordered something aad today is delhivery of this item item couldn't delivered it's is very important item to me but amazone break my trust on itself .I never ever buy anything form Amazon 🤮🤮🤮</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>22.14.2.350</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" s="2" t="n">
-        <v>45689.87634259259</v>
+        <v>45689.94517361111</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>22.14.2.350</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>d34146e7-9617-4335-aed1-d995b48a30ef</t>
+          <t>f6d0e0dd-157d-4658-8b80-b4d7b597e10f</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ramesh Chandra</t>
+          <t>keshav sharma</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXm9rtmZs4XVhk2g3tMjo8B89Rmm7hsZ-ddC39pGGhjQDfhYeU2</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX9yI9SvuAYwYN4a-IcZhoe2yCWdr6-_FdXp7A30QK1ussNehaB</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Best app</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" s="2" t="n">
-        <v>45689.87278935185</v>
+        <v>45689.93628472222</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>053c0cc4-10c3-449b-bb4a-fcec74bcbc2a</t>
+          <t>6e4550a8-0868-4581-886f-092a170c58ad</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Manav Nishad</t>
+          <t>Sabre Alam</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLAqc4dohrKmXmlpK4AK0b9p2z3hji47E9TsTxQYDrmXyDf9Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOjGYzTK682gUGx1kS8gJ4TQKBe-lxSY0AJDGk0quckWM_0g=mo</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Video unavailable in your location Currently miniTV videos are available to watch only in India Plz solve this problem</t>
+          <t>super amazon ke liye aa bahot believe</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H126" s="2" t="n">
-        <v>45689.87236111111</v>
+        <v>45689.93487268518</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>df6ba975-72db-4033-bd8a-2c1008b10ea0</t>
+          <t>9767a413-d9fc-4a52-998f-62d0f7740106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Prtaiksha ganpat bhilare</t>
+          <t>Jivitesh P</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvm82bptgYq72rKDaD8Mb_LwG3IVfcl3cRUsdHfE8UjH8lJnmirw</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUy_FHjdqmEfR4vcKyXYmcBaF9jd8yVHQ3crgsP1YIkeUSwG-bz</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Very nonsense application</t>
+          <t>Best app ever for payments like upi, scan QR and shopping</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" s="2" t="n">
-        <v>45689.87166666667</v>
+        <v>45689.93373842593</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7c647e83-9955-41f7-a70f-9073ea4db0a1</t>
+          <t>d4c6601c-e254-4176-a54a-2ffdcda641f3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Goswami Yogesh</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocILToW8_4fiOXYN5S6orbLszNNMwH6XDj58CBxjg47e2FoFsw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJNK6WAUOdmYeInPr6Uya2-xC4fDFId__j0LDyelIRLE9m1EhE=mo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>I’ve always hated Amazon’s review posting criteria—it’s honestly one of the worst features they have. The restrictions feel unnecessary and frustrating, especially when I take the time to write an honest review, only for Amazon to either block it or remove it later. And I hope they remove this feature!</t>
+          <t>Add city bus booking and give 5 Star rating</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45689.87</v>
+        <v>45689.93053240741</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>c93fb69f-239e-4381-919b-518a467c9d3d</t>
+          <t>3051a3e0-0119-4bc8-ad27-27c521bf4747</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lucky Luck</t>
+          <t>Ridhi Mawri</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKw-GK3QUfRKzKOudzjIZ-FoS2IiNugwxN3CPBOeCxdrYZiN-g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK6tEYqvI_2d26Vttm-zcvl5XsS8cKbwFdaLC-WKzEFZlza7w=mo</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>nice app</t>
+          <t>gd app</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5760,43 +5720,43 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45689.8680787037</v>
+        <v>45689.92900462963</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5d91eb7e-5b2a-4dc3-a77f-56b5790561af</t>
+          <t>a3f9fec9-5d94-49b9-8d5b-0d73db8155a1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Arshia Shaikh</t>
+          <t>Javed iqbal</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIcW9KNpKZYSi26w8JtJyRd2seX_f4GV26IJktOo850IgxVGA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXnNyCekZWFKjEvicGUcgdnPAQi9OuSDzEC4Stvkbylyyj7kTvZ</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Amazon is the most trusted shopping app.It makes solution to all the problems.</t>
+          <t>good service</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5807,7 +5767,7 @@
         </is>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45689.86511574074</v>
+        <v>45689.92761574074</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5820,22 +5780,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cd6b7e7d-6689-46f3-b478-7bc89c3b0b84</t>
+          <t>838655f9-a996-4c90-a8a2-ea42b0478b54</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sm Love</t>
+          <t>Asgar Alvi</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ540S9pq5h69qdOVBCDhuDUvpW-dUGZQiLFg55PPoz7rtaZg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIHmUI1PEB8B56R1FUpf3XALFHxajGxW-bJVvZ8JpViUMtLdw=mo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>superb quality</t>
+          <t>bahut achchas hai</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5844,33 +5804,41 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H131" s="2" t="n">
-        <v>45689.86170138889</v>
+        <v>45689.92486111111</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>64835fc1-223e-491d-86ce-6c3a3325669c</t>
+          <t>c781e52e-6a77-48db-8491-b42e036cc95c</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>satyabhan singh</t>
+          <t>ANUSHKA JOSHI</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWPtvVDiHZZwNPv5-gP5mSDkAxvOu5l2uMIDPGdMHeooweloajc</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ77Denu6T4qpaIC5Z_6ClpAn17RdK9hKygL6OAQvho_b4S5g=mo</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>very good</t>
+          <t>It's very nice 🙂💯</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5881,109 +5849,125 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.20.0.300</t>
         </is>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45689.85993055555</v>
+        <v>45689.92086805555</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>26.20.0.300</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>28b218c9-b55f-4a6f-a677-92856632a2c8</t>
+          <t>6de087c4-25fa-477b-a4bf-ebe4ac9e9d7b</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mdjafar Alam</t>
+          <t>Usman, khan, Srk</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWSuYfTDOo4DO9EoTriQqIuYKWvf4yaUcc4DWlbQxS1vdx_qt8</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVH9OfSRB62Ixw1OWNYuw8CbNA_n8ivMs3nTXRxY7Oo61EN22U</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>nice for Amazon</t>
+          <t>Very bad</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H133" s="2" t="n">
-        <v>45689.85421296296</v>
+        <v>45689.9178125</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ac9d284c-6bcf-4dae-8e84-5e460d9659e7</t>
+          <t>ce548f3e-4e26-4d34-97c9-ddefaf5d25c4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nancy singh (Naina)</t>
+          <t>BARU ARAVIND</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXQZOyE7gYVNxVO6F5MHi6XhTiamfc_bnQ0ZtIfXU_uWHlH9Bbn</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXY4UTbdxK5EJ_ixRGNk-2X42gWmMBGn9_FTSRlrVkLIzX4XKTZ</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>it's very fake app amazon ka naam Customer service or delivery ne kharab kr diya maine 12 taarik ko demelean cream order ki thi or mere mein 18 th of January ka delivered show ho Raha or maine guys online payment kar di thi , tab maine guys 19 ko connect Kiya resolution k liye or 20 ko kiya resolution k liye or 24,25 or har baar yahi mujhse bola gya ki aapki query raise ho gayi hain or aapka resolution jaldi se jaldi ho jaayega ab bol rhe refund nahi hoga guys ye ye fraud kr rhe h or bhi fraud h</t>
+          <t>Very good</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H134" s="2" t="n">
-        <v>45689.84887731481</v>
+        <v>45689.91453703704</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>a522bf89-13a5-4c00-9042-e723b37189a9</t>
+          <t>6c582c8a-acf1-4b1b-8158-efdc5466f184</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Aman Sharma</t>
+          <t>Arvind Rawat</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIDLQS9sZgrhSV21n4fWgLHGI3cSWWaruYvna41Vagg84w_hA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXptMBKExoFQTVo62RhNkPc98mbe8LltZeAr0rEfD-med66_1vC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>This is the V. Good app but rate is high as my budget but i like this app it's amazing..</t>
+          <t>good products amazon</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5998,7 +5982,7 @@
         </is>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45689.84716435185</v>
+        <v>45689.91394675926</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6011,104 +5995,112 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7eb5d0fa-b84e-464c-aebd-fe27dbab3216</t>
+          <t>738c0632-3a7c-4fa6-b814-47be5d64e483</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Rajni Kumari</t>
+          <t>Biswajit Dolui</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsV4T5f-4wThlhPyuPwHrqPleiD9NPWhMgKYbINaZkDdq-Lg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXacIQRkQrpHwZVeQyw7nq7D4WqDzGwcRX70BiS8EHT8R7sAH4</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>super ❤️</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45689.84678240741</v>
+        <v>45689.913125</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>dee5e477-357c-43ab-85a5-0781913a4cec</t>
+          <t>4769b4ec-fc34-449f-b095-724c561577b4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sonic Star</t>
+          <t>Mahi Rizu</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKdKR4GrA2Iq6sbaCS_6xg8G3MTblodIkkYNMdol0Fyso2bTA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVCFndj90FsPwCvcb6dMMETiqkBxe7q3jPr4PJkK0vaPalHWgog</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H137" s="2" t="n">
-        <v>45689.84556712963</v>
+        <v>45689.91159722222</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>423fe0bb-0c21-47f3-bd07-ed77918e54ce</t>
+          <t>71058aef-cd81-4855-8acd-c639db5f9928</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tulasi Nreddy</t>
+          <t>Karthikeyan S</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKX45ikOeReRpFXUk0tSpBdettni-Jqw40rNkJ9VLsF3v2trQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVK7w4fzGRoU7NguocZu0_aNE28wXVDE5C2ku9kMzT5usGnxUrj</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Pharmacy is total waste. Cant even upload prescription. If I go for doctor consultation it's working so fine. Just marketing strategy waste of time. Don't book any medicine through Amazon</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -6119,7 +6111,7 @@
         </is>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45689.84486111111</v>
+        <v>45689.90871527778</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6132,151 +6124,151 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>e6adc258-637a-4222-8c71-72956c7c372f</t>
+          <t>3403689e-da55-46a2-885f-dce4ffc83e59</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ajay Patki</t>
+          <t>Aseena Shiyas</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJwEaOaP8EP1NvVw2Psbp2Pzvi_lps4qVwdTsn9OF6lhVgf8mc=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXrctSKG3ePO3m_dyEG4WXMDy4_9jkuJqknON-0kyv19AHlPlw</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Great online shopping app</t>
+          <t>Very very waste 👎👎👎</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45689.84421296296</v>
+        <v>45689.90460648148</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>45e7e602-5762-4682-bf45-068ecfa32f89</t>
+          <t>0d910872-2630-442b-a509-4c8c711616ca</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Vaishnavi Kanojiya</t>
+          <t>Ajay Raut</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ3D58ro6LjPuyGDlbLq--VRxUlneGe3yptXWgn0EaDbZhuRQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLAubHutm6nXKHlX9jKnH7geMkOUt7OZSz5jY19DHgRycVTlQ=mo</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>very baddddddd 😡😡😡😡😡😡😡</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45689.84295138889</v>
+        <v>45689.89523148148</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.21.4.300</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6af81885-c86d-470f-96e1-c83cbfc9e54c</t>
+          <t>bb5ae72b-1d48-442b-9992-2434b4bec63b</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>rohit kumar</t>
+          <t>Nidhi Kaushik</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJPoZZCXmSZnDFroSWGokTEQJmfsoZwIT9hA8HAeAmGhz2G_xI=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIhssZvJ8XPznJ4PWe04lFHNZa0LOKhbOaTha4JIdXTEfo_UA=mo</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>very baad experience my very special day was cancelled because my parcel is delayed this could happen very baad experience for me</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45689.84292824074</v>
+        <v>45689.89498842593</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>11dd1bbb-f9f8-4b9d-9e18-68ae3e890a47</t>
+          <t>34940b0a-90f0-40c2-8341-8f74d87e4f7f</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DJ NANA Thakur</t>
+          <t>Seetha Hari Seetha Hari</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXLHxiWp9dD6ObXM7K-QrFmUQj5CrOCeUoF2TY5A1DAIzptBS_q</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKptVuxXsNtrR5qTJ8IcZFzf8Y-WLgKoXRorFj82GXit8v83g=mo</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>super</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6291,7 +6283,7 @@
         </is>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45689.83997685185</v>
+        <v>45689.89461805556</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6304,194 +6296,194 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2543704b-246b-4f83-b44d-3f816a0f51ec</t>
+          <t>03e86165-9ea7-40ce-9ffd-2158bb497d74</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Anand Parandkar</t>
+          <t>Pushpam Priya</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJM7u-NpQ8yJaTodcUiDV2Eg_WgrBwwwIWT31oZ7TkVlKz0Ag=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW9dVxsMKfQWWorZ1edxLcGLfdfGHjjIYAwsiCpPbNTUPVpAY0M</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Worst experience with prime one day delivery it's just for marketing campaign not to deliver on ground additional they have very arrogant delivery agent they ask you to came midway for collecting you're parcel if you deny they are not giving you your goods</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45689.83921296296</v>
+        <v>45689.88962962963</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3c67d613-a096-4e3b-8230-1064575cc901</t>
+          <t>cac7b91d-e6b3-4f17-b775-850e8dc49b30</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sunil singh</t>
+          <t>deepa Angadi</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWffRucskXnTyL4yTekHQG-1eTGSyzOFGTcO23y5zLsbyZlWF-f</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL8PgkJBFyuW9xGMzZ8miJO6IfZ-_RfvddApw53ySo5Qn-m0Q=mo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>This is totally waste of money 💰 The quality of product totally damage and they can send broken wrong items Please go and install flipkart for better experience Thank you 👍</t>
+          <t>Amazon is a best app for online shopping</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>28.17.0.300</t>
         </is>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45689.83689814815</v>
+        <v>45689.88746527778</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>28.17.0.300</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>79452b1b-07a6-4618-bbf1-0d2c5a77cfd9</t>
+          <t>461192b7-3a94-4563-8ba8-6e6d285ffcd1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SHIVANI GUPTA</t>
+          <t>Srinu C</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmCHIFQOadfh9kVdNyJ_R8eTyjr6HRpNT4LQUtYhRgRyxA0j3M</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUwx3-ttRGMrfO2xgK0EuO9WXZEh-LVJ1lO3_MCAOuVZ31jIc_oXQ</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Worst delivery service</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45689.83546296296</v>
+        <v>45689.88648148148</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>5a069f39-887b-4d6c-b371-5c05490fa3e4</t>
+          <t>3ea1c66f-6ccb-463a-a3e6-70bcf310d4c5</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Leo Kumar</t>
+          <t>Ishuraj singh</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLP9lf67vKcZAlvtGJQ63T7DZYtq1lO25XVuJ4qBP_7DhK5VqA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUxeJg6NrpDgZ7-xUUSVTrFOfK6-7HTzO8PS9QL_240vBcLqNyB</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>yahh its good</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45689.82565972222</v>
+        <v>45689.88075231481</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>9614aedd-9201-4f09-84e7-1c875e74a587</t>
+          <t>31a771bf-240d-4394-be65-75e6bd9c4fa7</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nitin Yanakshi</t>
+          <t>Mostakim Sordar</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKKILJO-NsQolK64yZo27_hE5YlTZoxpwRo07PI9Tqw0pbJPw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJZ08hMvgzKyUXPYDA2MQctkNna9bz0hqQKTlaow4zF134F=mo</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>Nice app</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6502,129 +6494,121 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.14.2.350</t>
         </is>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45689.82444444444</v>
+        <v>45689.87634259259</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.14.2.350</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>479bf08d-9a07-4cd4-adf9-01e23a28278a</t>
+          <t>d34146e7-9617-4335-aed1-d995b48a30ef</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jafar Khan</t>
+          <t>Ramesh Chandra</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVh_wXu5RY_LI_Gp4ir13IB0r2KAjRc6ehO2UVhT7QcKLWRVwo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXm9rtmZs4XVhk2g3tMjo8B89Rmm7hsZ-ddC39pGGhjQDfhYeU2</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>IS good shoping app good products percheing</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45689.81445601852</v>
+        <v>45689.87278935185</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>28.20.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>43ed8dd6-f5e7-42eb-b393-a4e2900c42a5</t>
+          <t>053c0cc4-10c3-449b-bb4a-fcec74bcbc2a</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pk Mujaharul</t>
+          <t>Manav Nishad</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXMlcPwBfBb9qJkHasJXZx1rBss3sgJqzPH6duLdjutJo9Mp_x1</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLAqc4dohrKmXmlpK4AK0b9p2z3hji47E9TsTxQYDrmXyDf9Q=mo</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Help full app</t>
+          <t>Video unavailable in your location Currently miniTV videos are available to watch only in India Plz solve this problem</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>28.23.2.300</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" s="2" t="n">
-        <v>45689.81402777778</v>
+        <v>45689.87236111111</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>28.23.2.300</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7a44f595-28bc-4131-b67f-b45741f98136</t>
+          <t>df6ba975-72db-4033-bd8a-2c1008b10ea0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Md Arman Raj</t>
+          <t>Prtaiksha ganpat bhilare</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVGy7G8id1zCpk0aMrMOss1Cla9qC1Jrv_qqPXVMSosDTuxvsi8</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUvm82bptgYq72rKDaD8Mb_LwG3IVfcl3cRUsdHfE8UjH8lJnmirw</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>nic</t>
+          <t>Very nonsense application</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -6635,7 +6619,7 @@
         </is>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45689.81386574074</v>
+        <v>45689.87166666667</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6648,57 +6632,65 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5fc77e55-44e8-43ef-ade2-e54ef91cdd59</t>
+          <t>7c647e83-9955-41f7-a70f-9073ea4db0a1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Divya Sharma</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjViavsPYH5NgPQIVSyij5h7-QY5WObFG-fNvDDS1mLVZgvpKCf9</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocILToW8_4fiOXYN5S6orbLszNNMwH6XDj58CBxjg47e2FoFsw=mo</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>💕</t>
+          <t>I’ve always hated Amazon’s review posting criteria—it’s honestly one of the worst features they have. The restrictions feel unnecessary and frustrating, especially when I take the time to write an honest review, only for Amazon to either block it or remove it later. And I hope they remove this feature!</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H151" s="2" t="n">
-        <v>45689.81314814815</v>
+        <v>45689.87</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1d5a2b79-948c-42c7-a316-8bce0ea12273</t>
+          <t>c93fb69f-239e-4381-919b-518a467c9d3d</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>John Prasad</t>
+          <t>Lucky Luck</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVZ3JOJb-RqSA15x3oa0oigX8mWvO1BuXAtdn38PMKIkYsM9C6Z</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKw-GK3QUfRKzKOudzjIZ-FoS2IiNugwxN3CPBOeCxdrYZiN-g=mo</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>nice app</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -6713,7 +6705,7 @@
         </is>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45689.81175925926</v>
+        <v>45689.8680787037</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6726,22 +6718,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ff97b2f7-4066-4b95-a892-0e699bfbc94c</t>
+          <t>5d91eb7e-5b2a-4dc3-a77f-56b5790561af</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pillai H Rajesh N</t>
+          <t>Arshia Shaikh</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJzzjVOpwJIh1t5buYqA6vmuqu8N22O0o0UpTL0Oo7P2V-r-w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIcW9KNpKZYSi26w8JtJyRd2seX_f4GV26IJktOo850IgxVGA=mo</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>simply awesome</t>
+          <t>Amazon is the most trusted shopping app.It makes solution to all the problems.</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -6752,50 +6744,50 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45689.80913194444</v>
+        <v>45689.86511574074</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>290caa76-a6d1-4968-8b9b-c6fab8ef9651</t>
+          <t>cd6b7e7d-6689-46f3-b478-7bc89c3b0b84</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jeetendra Kushwaha</t>
+          <t>Sm Love</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL4YDREGHfdYI1DW-GpEN3L0py8Vum2gf2_wnyanPbpMDYJlw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ540S9pq5h69qdOVBCDhuDUvpW-dUGZQiLFg55PPoz7rtaZg=mo</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Amazon service of customer support is very burst, I have raise a complaint regarding refund related but not resolve the query and service executive lie and misguided information provided to us. Never trust on</t>
+          <t>superb quality</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" s="2" t="n">
-        <v>45689.80709490741</v>
+        <v>45689.86170138889</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6804,26 +6796,26 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>45fa5cd4-1397-4db6-9328-6aa2381a430c</t>
+          <t>64835fc1-223e-491d-86ce-6c3a3325669c</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>govind singh</t>
+          <t>satyabhan singh</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJqW62MhQi-CcRuhJuZ5NqKES43oytjcGAVQsLrLcmP2oahPw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWPtvVDiHZZwNPv5-gP5mSDkAxvOu5l2uMIDPGdMHeooweloajc</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Worst costumer care services Bought a kareoke set for 5000 rs. Received damaged, initiated return and complaint multiple times still they didn't initiated refund or picked up item and not return window is closed.</t>
+          <t>very good</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -6834,7 +6826,7 @@
         </is>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45689.80582175926</v>
+        <v>45689.85993055555</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6847,22 +6839,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>002f8424-96b6-46c8-825b-f8a09ceb4d41</t>
+          <t>28b218c9-b55f-4a6f-a677-92856632a2c8</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>M Parvez</t>
+          <t>Mdjafar Alam</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKd9Jx2UXC-esZsUDgSqlTKAe11xseKQtayjKfO_5_cwfMFKKg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWSuYfTDOo4DO9EoTriQqIuYKWvf4yaUcc4DWlbQxS1vdx_qt8</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Best app of online purchaseing &amp; quickly problem solve. We love amazon</t>
+          <t>nice for Amazon</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -6871,52 +6863,44 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G156" t="inlineStr"/>
       <c r="H156" s="2" t="n">
-        <v>45689.80409722222</v>
+        <v>45689.85421296296</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>192dc8f6-c874-4560-a6df-d5075c6c37b0</t>
+          <t>ac9d284c-6bcf-4dae-8e84-5e460d9659e7</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mamoni Mondil</t>
+          <t>Nancy singh (Naina)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLDIdbZ14SPoBM3srdgUkW_GISgcRPPhB9Bcq0L2fz1UAc5GA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXQZOyE7gYVNxVO6F5MHi6XhTiamfc_bnQ0ZtIfXU_uWHlH9Bbn</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>it's very fake app amazon ka naam Customer service or delivery ne kharab kr diya maine 12 taarik ko demelean cream order ki thi or mere mein 18 th of January ka delivered show ho Raha or maine guys online payment kar di thi , tab maine guys 19 ko connect Kiya resolution k liye or 20 ko kiya resolution k liye or 24,25 or har baar yahi mujhse bola gya ki aapki query raise ho gayi hain or aapka resolution jaldi se jaldi ho jaayega ab bol rhe refund nahi hoga guys ye ye fraud kr rhe h or bhi fraud h</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" s="2" t="n">
-        <v>45689.80164351852</v>
+        <v>45689.84887731481</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6925,22 +6909,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>13b8e185-79e1-46d5-b101-398a9f6788b3</t>
+          <t>a522bf89-13a5-4c00-9042-e723b37189a9</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mahe ###</t>
+          <t>Aman Sharma</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIuIIfaRD6q2VKOPGLcJUvl_4jy2R813RfI3y6uylop9QauoQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIDLQS9sZgrhSV21n4fWgLHGI3cSWWaruYvna41Vagg84w_hA=mo</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Good coustomer service app</t>
+          <t>This is the V. Good app but rate is high as my budget but i like this app it's amazing..</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6949,33 +6933,41 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H158" s="2" t="n">
-        <v>45689.79987268519</v>
+        <v>45689.84716435185</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>16260e3f-96ce-4b0e-b11b-0543f5cc73af</t>
+          <t>7eb5d0fa-b84e-464c-aebd-fe27dbab3216</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hrithik Pandi</t>
+          <t>Rajni Kumari</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUrSC3xzaOAze064oJCaLo6EX2fR5lrHHlcu50RCWM97a9EeFkE</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsV4T5f-4wThlhPyuPwHrqPleiD9NPWhMgKYbINaZkDdq-Lg=mo</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>super ❤️</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -6984,28 +6976,36 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="n">
-        <v>45689.79928240741</v>
+        <v>45689.84678240741</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>dc1795ca-bf5c-4d57-b6bc-e171092e9f70</t>
+          <t>dee5e477-357c-43ab-85a5-0781913a4cec</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>amit verma</t>
+          <t>sonic Star</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLIZpO-KZzhj0YSXd5jQ51cxn1GYqRlQXHW3D13RS_77tf03g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKdKR4GrA2Iq6sbaCS_6xg8G3MTblodIkkYNMdol0Fyso2bTA=mo</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" s="2" t="n">
-        <v>45689.79709490741</v>
+        <v>45689.84556712963</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7030,57 +7030,65 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1c12296b-4b9f-4951-a9f7-bd851858013c</t>
+          <t>423fe0bb-0c21-47f3-bd07-ed77918e54ce</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>YOUTUBER OF MUZAFFARNAGAR</t>
+          <t>tulasi Nreddy</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-JGVjyjSqXW6Bbm9YflYE8saetuu1oQsJSIyMDL9-RU16Xg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKX45ikOeReRpFXUk0tSpBdettni-Jqw40rNkJ9VLsF3v2trQ=mo</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Bugs everywhere worst app</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
       <c r="H161" s="2" t="n">
-        <v>45689.79356481481</v>
+        <v>45689.84486111111</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>30.2.0.300</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>a9cd88c4-54fb-40d7-814d-e8ec8d80ec72</t>
+          <t>e6adc258-637a-4222-8c71-72956c7c372f</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>md khamar khamar</t>
+          <t>Ajay Patki</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLA6GohnxDA7HIQuwYA4vZUP2pfWkIBlDH-9plHT1IAwayLAA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJwEaOaP8EP1NvVw2Psbp2Pzvi_lps4qVwdTsn9OF6lhVgf8mc=mo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>superb</t>
+          <t>Great online shopping app</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -7091,77 +7099,77 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
       <c r="H162" s="2" t="n">
-        <v>45689.79302083333</v>
+        <v>45689.84421296296</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>e5398124-1326-4592-92e6-f10a6bf35c3f</t>
+          <t>45e7e602-5762-4682-bf45-068ecfa32f89</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>vikram bariya</t>
+          <t>Vaishnavi Kanojiya</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIOnBFLP0-_kWNGMSPas46Y4WjVU1HinYOQIZYkeQRkr2xVuA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ3D58ro6LjPuyGDlbLq--VRxUlneGe3yptXWgn0EaDbZhuRQ=mo</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Best</t>
+          <t>very baddddddd 😡😡😡😡😡😡😡</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28.18.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H163" s="2" t="n">
-        <v>45689.79084490741</v>
+        <v>45689.84295138889</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>28.18.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>c2f4a8aa-0f5d-4a59-8cca-778d47e27085</t>
+          <t>6af81885-c86d-470f-96e1-c83cbfc9e54c</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Deekshith M C</t>
+          <t>rohit kumar</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ5mURDbJmfooDvtK9P3uv93SoZ6UNpF6ou_FjvyILf93TmTA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJPoZZCXmSZnDFroSWGokTEQJmfsoZwIT9hA8HAeAmGhz2G_xI=mo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7177,39 +7185,39 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H164" s="2" t="n">
-        <v>45689.78988425926</v>
+        <v>45689.84292824074</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>265c5b1e-c027-4d65-bc80-5de450bc3d72</t>
+          <t>11dd1bbb-f9f8-4b9d-9e18-68ae3e890a47</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>yadati kumar</t>
+          <t>DJ NANA Thakur</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWxMNH3XSaeqq2c0pZNyPlnqo7rl6fhbsNYXkLaML4TD_2cbJE</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXLHxiWp9dD6ObXM7K-QrFmUQj5CrOCeUoF2TY5A1DAIzptBS_q</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Very good</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -7224,7 +7232,7 @@
         </is>
       </c>
       <c r="H165" s="2" t="n">
-        <v>45689.78961805555</v>
+        <v>45689.83997685185</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7237,155 +7245,155 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>b2c2179b-096e-459e-b655-ffaf8cd22ca3</t>
+          <t>2543704b-246b-4f83-b44d-3f816a0f51ec</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>karthik royal</t>
+          <t>Anand Parandkar</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWq2k17nUJwVre2e2bbKNaatyt3ww9z1LV_c5OeBi5IPq4SpxHC</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJM7u-NpQ8yJaTodcUiDV2Eg_WgrBwwwIWT31oZ7TkVlKz0Ag=mo</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Worst experience with prime one day delivery it's just for marketing campaign not to deliver on ground additional they have very arrogant delivery agent they ask you to came midway for collecting you're parcel if you deny they are not giving you your goods</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>26.16.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H166" s="2" t="n">
-        <v>45689.78869212963</v>
+        <v>45689.83921296296</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>26.16.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>24e7cffa-a892-4ff1-8e2a-db0cd0d2c806</t>
+          <t>3c67d613-a096-4e3b-8230-1064575cc901</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Gurjant Choudhary</t>
+          <t>Sunil singh</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVlCx-gcukrkMC9g20qMEzhW5LunFZ7Wrr7F0IoZVt8k3sECp64</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWffRucskXnTyL4yTekHQG-1eTGSyzOFGTcO23y5zLsbyZlWF-f</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>This is totally waste of money 💰 The quality of product totally damage and they can send broken wrong items Please go and install flipkart for better experience Thank you 👍</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28.5.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H167" s="2" t="n">
-        <v>45689.78311342592</v>
+        <v>45689.83689814815</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>28.5.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>95dc1bb7-df07-4798-aa27-dc0918596b3d</t>
+          <t>79452b1b-07a6-4618-bbf1-0d2c5a77cfd9</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Anju Bharali</t>
+          <t>SHIVANI GUPTA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJY0qCbEHpimSa8-KmY-9ndVnrvEggTrWRhhBrXYM_FZEOMCg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmCHIFQOadfh9kVdNyJ_R8eTyjr6HRpNT4LQUtYhRgRyxA0j3M</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Best app to order things online better than every other app but sometimes it gliches</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>22.18.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H168" s="2" t="n">
-        <v>45689.78233796296</v>
+        <v>45689.83546296296</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>22.18.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6e604029-4af0-40da-81f4-997d9b5502ab</t>
+          <t>5a069f39-887b-4d6c-b371-5c05490fa3e4</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Afsana Abbas</t>
+          <t>Leo Kumar</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJGF-k4HeZepeu4QMiObUOEJl9CsStyyEY5cB0mXuhY9dnYkQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLP9lf67vKcZAlvtGJQ63T7DZYtq1lO25XVuJ4qBP_7DhK5VqA=mo</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Fake promises by Amazon . Even if prime subscription the delivery time is normal. As in the adds it's says one day delivery , in reality they are failed to provide the services . Now a days there is lots of other online apps they are delivering the same products in 5 to 10 minutes in Bangalore</t>
+          <t>yahh its good</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -7396,7 +7404,7 @@
         </is>
       </c>
       <c r="H169" s="2" t="n">
-        <v>45689.7783449074</v>
+        <v>45689.82565972222</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7409,108 +7417,108 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>d0f59cdf-a983-4536-a5b4-5191eda5ee45</t>
+          <t>9614aedd-9201-4f09-84e7-1c875e74a587</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Venky Prema</t>
+          <t>Nitin Yanakshi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLViWq77CgR7tpDbTGgJZlgoPU4cJDJGFnU8bNpTMma6jBZCQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKKILJO-NsQolK64yZo27_hE5YlTZoxpwRo07PI9Tqw0pbJPw=mo</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>delvery is super</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H170" s="2" t="n">
-        <v>45689.77689814815</v>
+        <v>45689.82444444444</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6d9f94e1-6f8f-4858-aca6-fcea8cbe35a8</t>
+          <t>479bf08d-9a07-4cd4-adf9-01e23a28278a</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Aadil Khan</t>
+          <t>Jafar Khan</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV9w7fkcwcmo4snvdlReGFh2Yol7VKWOkC9FnFSfgXhQMu95fxs</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVh_wXu5RY_LI_Gp4ir13IB0r2KAjRc6ehO2UVhT7QcKLWRVwo</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Delivery person sucks.</t>
+          <t>IS good shoping app good products percheing</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>24.21.4.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
       <c r="H171" s="2" t="n">
-        <v>45689.76935185185</v>
+        <v>45689.81445601852</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>24.21.4.300</t>
+          <t>28.20.2.300</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>fa1a2ddf-9c92-45cc-b64d-224c5d37ce7b</t>
+          <t>43ed8dd6-f5e7-42eb-b393-a4e2900c42a5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Prem singh</t>
+          <t>Pk Mujaharul</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWa_8RqGEvyla0VrPM2Edepq6PKQRCcmwsC_kEz59dj_ovgn4dx</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXMlcPwBfBb9qJkHasJXZx1rBss3sgJqzPH6duLdjutJo9Mp_x1</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>बहुत अच्छा है मुझे ऑनलाइन शॉपिंग करना अच्छा लगता है धन्यवाद अमेजॉन</t>
+          <t>Help full app</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7519,37 +7527,45 @@
       <c r="F172" t="n">
         <v>0</v>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>28.23.2.300</t>
+        </is>
+      </c>
       <c r="H172" s="2" t="n">
-        <v>45689.76532407408</v>
+        <v>45689.81402777778</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>28.23.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>602cb0c2-e1e6-43db-8bab-49f070e3dd2e</t>
+          <t>7a44f595-28bc-4131-b67f-b45741f98136</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Sana Siddique</t>
+          <t>Md Arman Raj</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXEplyc3RMfSsESI-LfhEgwYeaUJl_n6CB99ghzxHQDOK13fyGi</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVGy7G8id1zCpk0aMrMOss1Cla9qC1Jrv_qqPXVMSosDTuxvsi8</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>my favourite app 💝😘</t>
+          <t>nic</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -7560,7 +7576,7 @@
         </is>
       </c>
       <c r="H173" s="2" t="n">
-        <v>45689.7609837963</v>
+        <v>45689.81386574074</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7573,22 +7589,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>517cbabf-ee7b-476b-9d1b-4684da232468</t>
+          <t>5fc77e55-44e8-43ef-ade2-e54ef91cdd59</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ranjit Singh</t>
+          <t>Divya Sharma</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKpiwyI2XcdHR9HVC3gSdnD30SXXIPhlk4eDFiT-LAuFKeKyA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjViavsPYH5NgPQIVSyij5h7-QY5WObFG-fNvDDS1mLVZgvpKCf9</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Best app for shopping</t>
+          <t>💕</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7597,41 +7613,33 @@
       <c r="F174" t="n">
         <v>0</v>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>28.18.4.300</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" s="2" t="n">
-        <v>45689.75684027778</v>
+        <v>45689.81314814815</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>28.18.4.300</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>783948f2-9086-42fd-88e7-466ebaf40aff</t>
+          <t>1d5a2b79-948c-42c7-a316-8bce0ea12273</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Raju Kumar</t>
+          <t>John Prasad</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVpVW0YjLcqy46-jZh7Y0pjstkR40_ZeCSlbbRqZkexL7bYKJxH</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVZ3JOJb-RqSA15x3oa0oigX8mWvO1BuXAtdn38PMKIkYsM9C6Z</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Nice pic bro 👌👌</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7642,82 +7650,82 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45689.75445601852</v>
+        <v>45689.81175925926</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>46c6ab2a-cf95-452d-8bfd-1e575e7aaf52</t>
+          <t>ff97b2f7-4066-4b95-a892-0e699bfbc94c</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sunil Kumar</t>
+          <t>Pillai H Rajesh N</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWkcT4YAQxsMHkUcMPD1auA8MqsYTK2JOx3Hu8cmVFMLmUBNOg7</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJzzjVOpwJIh1t5buYqA6vmuqu8N22O0o0UpTL0Oo7P2V-r-w=mo</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Amazon app is not 🚭 working</t>
+          <t>simply awesome</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>22.14.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
       <c r="H176" s="2" t="n">
-        <v>45689.75056712963</v>
+        <v>45689.80913194444</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>22.14.2.350</t>
+          <t>30.2.0.300</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3f3e1b96-62e4-404a-ab80-07694f98d62f</t>
+          <t>290caa76-a6d1-4968-8b9b-c6fab8ef9651</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Amarpreet singh</t>
+          <t>Jeetendra Kushwaha</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmn-WvfIuyqhzCXesy7vPpOtpjBwiYjvwP598mhuzG0xN-FNbF</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL4YDREGHfdYI1DW-GpEN3L0py8Vum2gf2_wnyanPbpMDYJlw=mo</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ya refund nahi karta agar product galat aeya hoga</t>
+          <t>Amazon service of customer support is very burst, I have raise a complaint regarding refund related but not resolve the query and service executive lie and misguided information provided to us. Never trust on</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7726,45 +7734,37 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>28.13.0.300</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" s="2" t="n">
-        <v>45689.74151620371</v>
+        <v>45689.80709490741</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>28.13.0.300</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6227397f-2c6d-4f9b-a947-5df37d0d96a3</t>
+          <t>45fa5cd4-1397-4db6-9328-6aa2381a430c</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Surendra Thube</t>
+          <t>govind singh</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJTsmkJeyNy4QXRPvQ1OaFgrC00FoU4e7E1wnak9BkxkpbGCA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJqW62MhQi-CcRuhJuZ5NqKES43oytjcGAVQsLrLcmP2oahPw=mo</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Worst costumer care services Bought a kareoke set for 5000 rs. Received damaged, initiated return and complaint multiple times still they didn't initiated refund or picked up item and not return window is closed.</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45689.74089120371</v>
+        <v>45689.80582175926</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7788,22 +7788,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>c41e35a6-78e2-4813-878b-e82dfe8e2374</t>
+          <t>002f8424-96b6-46c8-825b-f8a09ceb4d41</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Priya Barath</t>
+          <t>M Parvez</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVaLwBthSUblfRJiCT_MASOnLxoVrb1oiUpzVJYndiQdbQKGslS</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKd9Jx2UXC-esZsUDgSqlTKAe11xseKQtayjKfO_5_cwfMFKKg=mo</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Best app of online purchaseing &amp; quickly problem solve. We love amazon</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7814,82 +7814,74 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H179" s="2" t="n">
-        <v>45689.73601851852</v>
+        <v>45689.80409722222</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>98ca6c0f-5894-49d5-b83b-5cb515d2421f</t>
+          <t>192dc8f6-c874-4560-a6df-d5075c6c37b0</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Atish Kamble</t>
+          <t>Mamoni Mondil</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXVLMUsi1sbUMkn2zdW4mZeSJQU901v61lXc1lDgkj1MG634R5V</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLDIdbZ14SPoBM3srdgUkW_GISgcRPPhB9Bcq0L2fz1UAc5GA=mo</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Worst exprnce i got plz dont download this appp delet it if u already downloaded</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" s="2" t="n">
-        <v>45689.73085648148</v>
+        <v>45689.80164351852</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>797b2de6-93a8-4611-94cc-a7a7fe43dcf7</t>
+          <t>13b8e185-79e1-46d5-b101-398a9f6788b3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ajay Baglane</t>
+          <t>Mahe ###</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVoqGZ7KGzJWoYjlRxUru00wyhUPj_FVt5Qx_FypLf-6Z0zUqY</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIuIIfaRD6q2VKOPGLcJUvl_4jy2R813RfI3y6uylop9QauoQ=mo</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>bhari</t>
+          <t>Good coustomer service app</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -7898,541 +7890,525 @@
       <c r="F181" t="n">
         <v>0</v>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
       <c r="H181" s="2" t="n">
-        <v>45689.72701388889</v>
+        <v>45689.79987268519</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>02d38163-78cf-4428-aee7-c8f84dff798f</t>
+          <t>16260e3f-96ce-4b0e-b11b-0543f5cc73af</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>swapna utikar</t>
+          <t>Hrithik Pandi</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKijPcGgGuAJav67zV4mtTVtwUdu0BmCT8ZMvuQLQfgZ5z1Yw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUrSC3xzaOAze064oJCaLo6EX2fR5lrHHlcu50RCWM97a9EeFkE</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Sometimes order come very late</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" s="2" t="n">
-        <v>45689.72633101852</v>
+        <v>45689.79928240741</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>f7900db1-3c1c-4c82-827f-2c7c94bba12a</t>
+          <t>dc1795ca-bf5c-4d57-b6bc-e171092e9f70</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Pradip Gharami</t>
+          <t>amit verma</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVkHucRL7dfZF5yo0ZUrRg5RBpLHcr4iCFXeitBnYkhhAwdfe7M</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLIZpO-KZzhj0YSXd5jQ51cxn1GYqRlQXHW3D13RS_77tf03g=mo</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G183" t="inlineStr"/>
       <c r="H183" s="2" t="n">
-        <v>45689.71802083333</v>
+        <v>45689.79709490741</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>acf100ed-1ef8-4618-ab8e-36e81d99e9a0</t>
+          <t>1c12296b-4b9f-4951-a9f7-bd851858013c</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Rfjcvjkb Vjfur4gg</t>
+          <t>YOUTUBER OF MUZAFFARNAGAR</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIgaKDiNVr3Kk-PNOx_ltyHuoKTUbpqkULRwc70SpDsO4xJqQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-JGVjyjSqXW6Bbm9YflYE8saetuu1oQsJSIyMDL9-RU16Xg=mo</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>This app is verry impotent💮</t>
+          <t>Bugs everywhere worst app</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="G184" t="inlineStr"/>
       <c r="H184" s="2" t="n">
-        <v>45689.71657407407</v>
+        <v>45689.79356481481</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>30.2.0.300</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1bdd74ff-0dd1-4cf1-b1fa-5953d1a677ca</t>
+          <t>a9cd88c4-54fb-40d7-814d-e8ec8d80ec72</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Shrikrishna Pachaury</t>
+          <t>md khamar khamar</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIeF_JIE2Jxb0-oQrNmKQ-38Dib7vrg1IwqBzVsJQIQohC3PQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLA6GohnxDA7HIQuwYA4vZUP2pfWkIBlDH-9plHT1IAwayLAA=mo</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sometimes delivery is very much late, like I ordered a book and after saying that it will come 20 days later it didn't came after a month.</t>
+          <t>superb</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
       <c r="H185" s="2" t="n">
-        <v>45689.71488425926</v>
+        <v>45689.79302083333</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.23.2.300</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>89469214-1bcc-4130-af80-ca5c635da42a</t>
+          <t>e5398124-1326-4592-92e6-f10a6bf35c3f</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Aditya Singh</t>
+          <t>vikram bariya</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLG7gfdmVRqK9DwcIVn-FAiR9E5HxtM2AN6ZGN9zQ1cr0fdug=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIOnBFLP0-_kWNGMSPas46Y4WjVU1HinYOQIZYkeQRkr2xVuA=mo</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>this app is good for upi payment but sometimes payment fail and Improve the interface</t>
+          <t>Best</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.18.2.300</t>
         </is>
       </c>
       <c r="H186" s="2" t="n">
-        <v>45689.7147337963</v>
+        <v>45689.79084490741</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>30.1.2.300</t>
+          <t>28.18.2.300</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>c8c721d0-978d-47c3-8bef-fd8150dcc918</t>
+          <t>c2f4a8aa-0f5d-4a59-8cca-778d47e27085</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vicky Redmi</t>
+          <t>Deekshith M C</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWG97R6to3OgQ_N3FG4BzpV8PcZECT0L8dF11Zb7bvbzOeoG1t0</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ5mURDbJmfooDvtK9P3uv93SoZ6UNpF6ou_FjvyILf93TmTA=mo</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>I'm using paylater for several months. The due is higher than I used so I tried to reach customer care via app it's not working. Both chat and call option is not working. Ive speak with customer support by calling but they ask me to check with lending partner and the axio is not responding same like Amazon. It's totally scam. Amazon don't want to let reach their customer for support. Amazon is big space don't do this cheap things. I'm paying extra amount for past 3 months. Didn't expected this.</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H187" s="2" t="n">
-        <v>45689.71016203704</v>
+        <v>45689.78988425926</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>8f1d2d16-85d0-4a94-b062-2a5a6044eb65</t>
+          <t>265c5b1e-c027-4d65-bc80-5de450bc3d72</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>md ziaur</t>
+          <t>yadati kumar</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVmN5PxnQkP3X10g4PZtm4QDG90XoOi9s9xHuQTdDwbT7oeoN8T</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWxMNH3XSaeqq2c0pZNyPlnqo7rl6fhbsNYXkLaML4TD_2cbJE</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>okay</t>
+          <t>Very good</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18.5.2.350</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H188" s="2" t="n">
-        <v>45689.70813657407</v>
+        <v>45689.78961805555</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>18.5.2.350</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>d3d8663e-e217-4d86-96b9-81129581f62e</t>
+          <t>b2c2179b-096e-459e-b655-ffaf8cd22ca3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ujjawal Raut</t>
+          <t>karthik royal</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWllOR5OIPfejUA8fmMcg0gF5rfVhwsIMPAUCY0HbM0KiyQMJo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWq2k17nUJwVre2e2bbKNaatyt3ww9z1LV_c5OeBi5IPq4SpxHC</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Amazon's delivery boy's very roodly and very inresponsible.</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>26.16.2.350</t>
+        </is>
+      </c>
       <c r="H189" s="2" t="n">
-        <v>45689.70734953704</v>
+        <v>45689.78869212963</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>26.16.2.350</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dc901c76-652c-4ebb-b60f-32ebe885aedd</t>
+          <t>24e7cffa-a892-4ff1-8e2a-db0cd0d2c806</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Namra Bajaj</t>
+          <t>Gurjant Choudhary</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIx_GtE77sfzK4zJl8jCFKUO1Xpq78SuDcOLBtMa79J434VMQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVlCx-gcukrkMC9g20qMEzhW5LunFZ7Wrr7F0IoZVt8k3sECp64</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Best app for shopping...</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.5.0.300</t>
         </is>
       </c>
       <c r="H190" s="2" t="n">
-        <v>45689.70429398148</v>
+        <v>45689.78311342592</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.5.0.300</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>80492a46-992e-460d-b4e8-f8d6e3bc8343</t>
+          <t>95dc1bb7-df07-4798-aa27-dc0918596b3d</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Bhawana suyal</t>
+          <t>Anju Bharali</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXx1kgrRfPi6gs59o9iFNnVmMqTlTyIEjorygpmAe4AOdvFAd20</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJY0qCbEHpimSa8-KmY-9ndVnrvEggTrWRhhBrXYM_FZEOMCg=mo</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Tooo much good shopping app</t>
+          <t>Best app to order things online better than every other app but sometimes it gliches</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.18.0.300</t>
         </is>
       </c>
       <c r="H191" s="2" t="n">
-        <v>45689.70395833333</v>
+        <v>45689.78233796296</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>22.18.0.300</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ba843835-a607-406c-b0f0-d965f5754df1</t>
+          <t>6e604029-4af0-40da-81f4-997d9b5502ab</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Taran Kaur</t>
+          <t>Afsana Abbas</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9at7OS9WAq9JqosUwCaJw-AC2bwDaHZwZbk8pz7WAoAdQ6w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJGF-k4HeZepeu4QMiObUOEJl9CsStyyEY5cB0mXuhY9dnYkQ=mo</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>good product 👍</t>
+          <t>Fake promises by Amazon . Even if prime subscription the delivery time is normal. As in the adds it's says one day delivery , in reality they are failed to provide the services . Now a days there is lots of other online apps they are delivering the same products in 5 to 10 minutes in Bangalore</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H192" s="2" t="n">
-        <v>45689.69903935185</v>
+        <v>45689.7783449074</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>9ae5a256-f9f8-403b-bce3-230e0878f482</t>
+          <t>d0f59cdf-a983-4536-a5b4-5191eda5ee45</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Akbar Khan</t>
+          <t>Venky Prema</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWnACzNzfbgZ-o929AmPfdAQpNthKwTtKXtL15wHsAfZ21_quA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLViWq77CgR7tpDbTGgJZlgoPU4cJDJGFnU8bNpTMma6jBZCQ=mo</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>डिलीवरी बॉय घर तक नहीं आता नई गांव तक आता है और अमेजॉन ₹40 डिलीवरी चार्ज भी लेता है आर्डर लेने में और ऑर्डर रिटर्न करने में काफी प्रॉब्लम का सामना करना पड़ता ह कंप्लेंट करने का कोई फायदा नहीं होता कभी-कभी डिलीवरी मैन फोन करता ही नहीं है रिटर्न करते समय और प्रोडक्ट को वापस भेज देता है अमेजॉन सामान देते समय तो ओटीपी लेता है रिटर्न रिप्लेसमेंट करते समय नहीं लेता इसी वजह से डिलीवरी boy दूसरे का समान भेज लेता है अप में बता देता है कि आपका सामान डिलीवर हो गया फिर रिफंड लेने में काफी समस्या होती है।</t>
+          <t>delvery is super</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H193" s="2" t="n">
-        <v>45689.69429398148</v>
+        <v>45689.77689814815</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>242e65a9-e957-4e86-a96d-de43dd2b64ad</t>
+          <t>6d9f94e1-6f8f-4858-aca6-fcea8cbe35a8</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>nitin jangra</t>
+          <t>Aadil Khan</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUH_XXnCV_MGmkh9V6v7wpkMhO0HhZOLj_KQlH5DVEt7rNznYLVLQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV9w7fkcwcmo4snvdlReGFh2Yol7VKWOkC9FnFSfgXhQMu95fxs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Amazon wale chor hai Open box otp ki suvidha honi chiye Flipkart ke jase empty box send kr dete hai</t>
+          <t>Delivery person sucks.</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -8443,82 +8419,74 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>24.21.4.300</t>
         </is>
       </c>
       <c r="H194" s="2" t="n">
-        <v>45689.68614583334</v>
+        <v>45689.76935185185</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>24.21.4.300</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>72182ff0-21dc-408c-a155-978c6d7cdf3b</t>
+          <t>fa1a2ddf-9c92-45cc-b64d-224c5d37ce7b</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>hemkunt industries</t>
+          <t>Prem singh</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVURTgQFNVUGygGBGSddCTbW8tCsQtDBRP2c43-pya9mp6ZAnxl</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWa_8RqGEvyla0VrPM2Edepq6PKQRCcmwsC_kEz59dj_ovgn4dx</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Lag</t>
+          <t>बहुत अच्छा है मुझे ऑनलाइन शॉपिंग करना अच्छा लगता है धन्यवाद अमेजॉन</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
       <c r="H195" s="2" t="n">
-        <v>45689.68587962963</v>
+        <v>45689.76532407408</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>30.1.2.300</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1324f005-1caf-473e-a3a6-ba4dd5f4b136</t>
+          <t>602cb0c2-e1e6-43db-8bab-49f070e3dd2e</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Solanki Komal</t>
+          <t>Sana Siddique</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIWVjm5En3LcYS2fNDYRdee5hL2dnZgmze_yfgtukBuKEvodw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXEplyc3RMfSsESI-LfhEgwYeaUJl_n6CB99ghzxHQDOK13fyGi</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>my favourite app 💝😘</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -8527,33 +8495,41 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
       <c r="H196" s="2" t="n">
-        <v>45689.68324074074</v>
+        <v>45689.7609837963</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>30.1.2.300</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6a2985bf-998e-42f7-87e1-ff65873e1535</t>
+          <t>517cbabf-ee7b-476b-9d1b-4684da232468</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Rajesh Dedha</t>
+          <t>Ranjit Singh</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIyRIYmiKq0iVQ-VgQHzcI1GX5HW1E12yNRyPfW48LxLg24hg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKpiwyI2XcdHR9HVC3gSdnD30SXXIPhlk4eDFiT-LAuFKeKyA=mo</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>This is so great to buy anything like food machines grocery and smart watch is so good because this conect to phone and check heart beat and steps and for talking to any one and many things in Amazon</t>
+          <t>Best app for shopping</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -8564,43 +8540,43 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28.12.0.300</t>
+          <t>28.18.4.300</t>
         </is>
       </c>
       <c r="H197" s="2" t="n">
-        <v>45689.67774305555</v>
+        <v>45689.75684027778</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>28.12.0.300</t>
+          <t>28.18.4.300</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5ee87aca-c941-40fa-9670-6f95e6ee2273</t>
+          <t>783948f2-9086-42fd-88e7-466ebaf40aff</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Dr. Siddharth Hanumante</t>
+          <t>Raju Kumar</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVRa4RfqwExeEcsx1aQqSqHz2mBtDG_BhrV1-pAO3-cmgfS_uYQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVpVW0YjLcqy46-jZh7Y0pjstkR40_ZeCSlbbRqZkexL7bYKJxH</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Product specification doesn't match with the product delivered.bad customer service I experienced</t>
+          <t>Nice pic bro 👌👌</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8611,7 +8587,7 @@
         </is>
       </c>
       <c r="H198" s="2" t="n">
-        <v>45689.67288194445</v>
+        <v>45689.75445601852</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8624,65 +8600,65 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ce6cd1ac-9ff8-4423-a417-77955ee70b92</t>
+          <t>46c6ab2a-cf95-452d-8bfd-1e575e7aaf52</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Deepak Agrawal Bhajan Official</t>
+          <t>Sunil Kumar</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVJXoEIurrYi3Zu0cJ9uHgATuaMHWK4aKyn1lKvZy0e6vKhm5sZ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWkcT4YAQxsMHkUcMPD1auA8MqsYTK2JOx3Hu8cmVFMLmUBNOg7</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Very good app</t>
+          <t>Amazon app is not 🚭 working</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>22.14.2.350</t>
         </is>
       </c>
       <c r="H199" s="2" t="n">
-        <v>45689.67174768518</v>
+        <v>45689.75056712963</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>22.14.2.350</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>829f92ca-f42e-417f-a93e-f9bdef012da8</t>
+          <t>3f3e1b96-62e4-404a-ab80-07694f98d62f</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lohith Muneesh</t>
+          <t>Amarpreet singh</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIKn6lB2fBDIAzU47wCsnjH1H7BCTJ9k6idqjUtsYwOMk1jSg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmn-WvfIuyqhzCXesy7vPpOtpjBwiYjvwP598mhuzG0xN-FNbF</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Horrible shoping experience, customer care didn't refund me even though they failed to deliver my products even though the items were not delivered to me . Will be taking this to consumer court forum</t>
+          <t>ya refund nahi karta agar product galat aeya hoga</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -8693,39 +8669,39 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.13.0.300</t>
         </is>
       </c>
       <c r="H200" s="2" t="n">
-        <v>45689.67033564814</v>
+        <v>45689.74151620371</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>30.2.0.300</t>
+          <t>28.13.0.300</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6df92a4d-a09b-4f90-93e1-3583b7466d04</t>
+          <t>6227397f-2c6d-4f9b-a947-5df37d0d96a3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Banti Pandey</t>
+          <t>Surendra Thube</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKz433UkYowN0Z7K8QNpJ21XjoZunjWJ-nP_sN_LN0WBo2Cqg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJTsmkJeyNy4QXRPvQ1OaFgrC00FoU4e7E1wnak9BkxkpbGCA=mo</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>nice product</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -8736,17 +8712,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
       <c r="H201" s="2" t="n">
-        <v>45689.67</v>
+        <v>45689.74089120371</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>28.23.2.300</t>
+          <t>30.1.2.300</t>
         </is>
       </c>
     </row>
